--- a/doc/ue_udp.xlsx
+++ b/doc/ue_udp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469B56F9-136B-43AE-9238-E761A7A0DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65CDED-77A8-4DAA-85B3-E55E19B32598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,640 +37,641 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RPC发包过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EProcessRemoteFunctionFlags UnusedFlags = EProcessRemoteFunctionFlags::None;</t>
+  </si>
+  <si>
+    <t>ProcessRemoteFunctionForChannelPrivate(Ch, ClassCache, FieldCache, TargetObj, Connection, Function, Parms, OutParms, Stack, bIsServer, SendPolicy, UnusedFlags);</t>
+  </si>
+  <si>
+    <t>void UNetDriver::ProcessRemoteFunctionForChannelPrivate(UActorChannel* Ch,const FClassNetCache* ClassCache,const FFieldNetCache* FieldCache,UObject* TargetObj,UNetConnection* Connection,UFunction* Function,void* Parms,FOutParmRec* OutParms,FFrame* Stack,const bool bIsServer,const ERemoteFunctionSendPolicy SendPolicy,EProcessRemoteFunctionFlags&amp; RemoteFunctionFlags)</t>
+  </si>
+  <si>
+    <t>// Form the RPC preamble.</t>
+  </si>
+  <si>
+    <t>FOutBunch Bunch(Ch, 0);</t>
+  </si>
+  <si>
+    <t>if (Function-&gt;FunctionFlags &amp; FUNC_NetReliable)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>Bunch.bReliable = 1;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>是否可靠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造发送的Bunch，用于序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FNetBitWriter TempWriter( Bunch.PackageMap, 0 );</t>
+  </si>
+  <si>
+    <t>数据写入Bunch的PackageMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Use the replication layout to send the rpc parameter values</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FRepLayout&gt; RepLayout = GetFunctionRepLayout(Function);</t>
+  </si>
+  <si>
+    <t>RepLayout-&gt;SendPropertiesForRPC(Function, Ch, TempWriter, Parms);</t>
+  </si>
+  <si>
+    <t>设置发送的RPC参数，Params就是参数结构体的指针，需要根据Function的参数信息系列化具体的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数信息写入到TempWriter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteFieldHeaderAndPayload</t>
+  </si>
+  <si>
+    <t>写入Header和Payload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！Payload是啥？？？需要单独在分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！根据发送策略类型，判断是QueueSend还是直接Send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个发送策略，需要在分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (QueueBunch)</t>
+  </si>
+  <si>
+    <t>Ch-&gt;QueueRemoteFunctionBunch(TargetObj, Function, Bunch);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>Ch-&gt;SendBunch(&amp;Bunch, true);</t>
+  </si>
+  <si>
+    <t>FPacketIdRange UChannel::SendBunch( FOutBunch* Bunch, bool Merge )</t>
+  </si>
+  <si>
+    <t>以SendBunch分析为例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步，清空当前Connection的OutgoingBunches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FOutBunch*&gt;&amp; OutgoingBunches = Connection-&gt;GetOutgoingBunches();</t>
+  </si>
+  <si>
+    <t>OutgoingBunches.Reset();</t>
+  </si>
+  <si>
+    <t>第二步，设置一些必要信息？？？从Connection-&gt;PackageMap中设置？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！需要在分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步，如果当前Bunch比较大，则进行分包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( Bunch-&gt;GetNumBits() &gt; MAX_SINGLE_BUNCH_SIZE_BITS )</t>
+  </si>
+  <si>
+    <t>！！！MAX_SINGLE_BUNCH_SIZE_BITS=7625？？Bits的话，算下来就是900多BYTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while(bitsLeft &gt; 0)</t>
+  </si>
+  <si>
+    <t>拆包处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOutBunch * PartialBunch = new FOutBunch(this, false);</t>
+  </si>
+  <si>
+    <t>int64 bitsThisBunch = FMath::Min&lt;int64&gt;(bitsLeft, MAX_PARTIAL_BUNCH_SIZE_BITS);</t>
+  </si>
+  <si>
+    <t>PartialBunch-&gt;SerializeBits(data, bitsThisBunch);</t>
+  </si>
+  <si>
+    <t>OutgoingBunches.Add(PartialBunch);</t>
+  </si>
+  <si>
+    <t>else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutgoingBunches.Add(Bunch);</t>
+  </si>
+  <si>
+    <t>！！！不管如何，都插入到OutgoingBunches里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四步，遍历OutgoingBunches，挨个处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for( int32 PartialNum = 0; PartialNum &lt; OutgoingBunches.Num(); ++PartialNum)</t>
+  </si>
+  <si>
+    <t>FOutBunch * NextBunch = OutgoingBunches[PartialNum];</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;bReliable = Bunch-&gt;bReliable;</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;bOpen = Bunch-&gt;bOpen;</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;bClose = Bunch-&gt;bClose;</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;CloseReason = Bunch-&gt;CloseReason;</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;bIsReplicationPaused = Bunch-&gt;bIsReplicationPaused;</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;ChIndex = Bunch-&gt;ChIndex;</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;ChName = Bunch-&gt;ChName;</t>
+  </si>
+  <si>
+    <t>if ( !NextBunch-&gt;bHasPackageMapExports )</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;bHasMustBeMappedGUIDs |= Bunch-&gt;bHasMustBeMappedGUIDs;</t>
+  </si>
+  <si>
+    <t>if (OutgoingBunches.Num() &gt; 1)</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;bPartial = 1;</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;bPartialInitial = (PartialNum == 0 ? 1: 0);</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;bPartialFinal = (PartialNum == OutgoingBunches.Num() - 1 ? 1: 0);</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;bOpen &amp;= (PartialNum == 0);</t>
+  </si>
+  <si>
+    <t>// Only the first bunch should have the bOpen bit set</t>
+  </si>
+  <si>
+    <t>NextBunch-&gt;bClose = (Bunch-&gt;bClose &amp;&amp; (OutgoingBunches.Num()-1 == PartialNum)); // Only last bunch should have bClose bit set</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOutBunch *ThisOutBunch = PrepBunch(NextBunch, OutBunch, Merge);</t>
+  </si>
+  <si>
+    <t>// This handles queuing reliable bunches into the ack list</t>
+  </si>
+  <si>
+    <t>注意，这个比较重要，将可靠的Bunch放入OutRec中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FOutBunch*</t>
+  </si>
+  <si>
+    <t>OutRec;</t>
+  </si>
+  <si>
+    <t>// Outgoing reliable unacked data</t>
+  </si>
+  <si>
+    <t>可靠的队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutBunch = new FOutBunch(*Bunch);</t>
+  </si>
+  <si>
+    <t>FOutBunch** OutLink = &amp;OutRec;</t>
+  </si>
+  <si>
+    <t>while(*OutLink) // This was rewritten from a single-line for loop due to compiler complaining about empty body for loops (-Wempty-body)</t>
+  </si>
+  <si>
+    <t>OutLink=&amp;(*OutLink)-&gt;Next;</t>
+  </si>
+  <si>
+    <t>*OutLink = OutBunch;</t>
+  </si>
+  <si>
+    <t>Bunch-&gt;ChSequence = ++Connection-&gt;OutReliable[ChIndex];</t>
+  </si>
+  <si>
+    <t>序列号++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在于Connection中，每一个Channel对应一个序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 PacketId = SendRawBunch(ThisOutBunch, Merge, GetTraceCollector(*NextBunch));</t>
+  </si>
+  <si>
+    <t>发送消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 UChannel::SendRawBunch(FOutBunch* OutBunch, bool Merge, const FNetTraceCollector* Collector)</t>
+  </si>
+  <si>
+    <t>发送实现原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Send the raw bunch.</t>
+  </si>
+  <si>
+    <t>OutBunch-&gt;ReceivedAck = 0;</t>
+  </si>
+  <si>
+    <t>int32 PacketId = Connection-&gt;SendRawBunch(*OutBunch, Merge, Collector);</t>
+  </si>
+  <si>
+    <t>！！！注意这个OutRec，可靠的Bunch都通过链表连起来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 UNetConnection::SendRawBunch(FOutBunch&amp; Bunch, bool InAllowMerge, const FNetTraceCollector* BunchCollector)</t>
+  </si>
+  <si>
+    <t>// Build header.</t>
+  </si>
+  <si>
+    <t>构造消息包头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendBunchHeader.Reset();</t>
+  </si>
+  <si>
+    <t>SendBunchHeader.WriteBit(bIsOpenOrClose);</t>
+  </si>
+  <si>
+    <t>SendBunchHeader.WriteBit(Bunch.bIsReplicationPaused);</t>
+  </si>
+  <si>
+    <t>SendBunchHeader.WriteBit(Bunch.bReliable);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SendBunchHeader.SerializeIntPacked(ChIndex); </t>
+  </si>
+  <si>
+    <t>Bunch.PacketId = WriteBitsToSendBufferInternal(SendBunchHeader.GetData(), BunchHeaderBits, Bunch.GetData(), BunchBits, EWriteBitsDataType::Bunch);</t>
+  </si>
+  <si>
+    <t>将数据拷贝到底层的SendBuffer中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待FlushNet发送（可以直接发送，但是基本都是在TICK里面发送）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！可靠UDP的实现原理就在这个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendBuffer初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetConnection::InitSendBuffer()</t>
+  </si>
+  <si>
+    <t>int32 FinalBufferSize = (MaxPacket * 8) - MaxPacketHandlerBits;</t>
+  </si>
+  <si>
+    <t>计算方式MaxPacket=1024，MaxPacketHandlerBits=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendBuffer = FBitWriter(FinalBufferSize);</t>
+  </si>
+  <si>
+    <t>FinalBufferSize=8190Bits，变成Byte也不会超过UDP的包长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">// If the bunch does not fit in the current packet, </t>
+  </si>
+  <si>
+    <t>// flush packet now so that we can report collected stats in the correct scope</t>
+  </si>
+  <si>
+    <t>PrepareWriteBitsToSendBuffer(BunchHeaderBits, BunchBits);</t>
+  </si>
+  <si>
+    <t>先检测SendBuffer剩余容量，如果剩余空间小于发送Bites，则强制先发送一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看出来，整个可靠UDP的核心就是存在于Channel上面的OutRec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠的Bunch，发送前需要压入OutRec链表中，通过ACK来删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(abstract, transient)</t>
+  </si>
+  <si>
+    <t>class ENGINE_API Uchannel : public Uobject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>NumInRec;</t>
+  </si>
+  <si>
+    <t>// Number of packets in InRec.</t>
+  </si>
+  <si>
+    <t>NumOutRec;</t>
+  </si>
+  <si>
+    <t>// Number of packets in OutRec.</t>
+  </si>
+  <si>
+    <t>class FInBunch*</t>
+  </si>
+  <si>
+    <t>InRec;</t>
+  </si>
+  <si>
+    <t>// Incoming data with queued dependencies.</t>
+  </si>
+  <si>
+    <t>// Outgoing reliable unacked data.</t>
+  </si>
+  <si>
+    <t>InPartialBunch;</t>
+  </si>
+  <si>
+    <t>// Partial bunch we are receiving (incoming partial bunches are appended to this)</t>
+  </si>
+  <si>
+    <t>可靠的Bunch发送队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送时放入OutRec中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">收到ACK </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果超过一定时间没有收到ACK，需要再次发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UControlChannel</t>
+  </si>
+  <si>
+    <t>UControlChannel和UActorChannel实现不一样，前者就是简单信息，后者比较复杂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UControlChannel::Tick()</t>
+  </si>
+  <si>
+    <t>if( !OpenAcked )</t>
+  </si>
+  <si>
+    <t>如果设置了OpenAcked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集OutRec链表中没有收到ACK的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过8则不处理？？？？为啥不处理了？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (Wait &gt; 1.0)</t>
+  </si>
+  <si>
+    <t>举例上次发包超过1秒，则重新发送（更新发送时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection-&gt;SendRawBunch( *Out, 0 );</t>
+  </si>
+  <si>
+    <t>遍历QueuedMessages，挨个进行发送处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while (QueuedMessages.Num() &gt; 0 &amp;&amp; !Closing)</t>
+  </si>
+  <si>
+    <t>FControlChannelOutBunch Bunch(this, 0);</t>
+  </si>
+  <si>
+    <t>Bunch.SerializeBits(QueuedMessages[0].Data.GetData(), QueuedMessages[0].CountBits);</t>
+  </si>
+  <si>
+    <t>Super::SendBunch(&amp;Bunch, 1);</t>
+  </si>
+  <si>
+    <t>QueuedMessages.RemoveAt(0, 1);</t>
+  </si>
+  <si>
+    <t>挨个发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>for (FPacketIterator It(this); It; ++It)</t>
+  </si>
+  <si>
+    <t>FReceivedPacketView ReceivedPacket;</t>
+  </si>
+  <si>
+    <t>FInPacketTraits&amp; ReceivedTraits = ReceivedPacket.Traits;</t>
+  </si>
+  <si>
+    <t>bool bOk = It.GetCurrentPacket(ReceivedPacket);</t>
+  </si>
+  <si>
+    <t>const TSharedRef&lt;const FInternetAddr&gt; FromAddr = ReceivedPacket.Address.ToSharedRef();</t>
+  </si>
+  <si>
+    <t>UNetConnection* Connection = nullptr;</t>
+  </si>
+  <si>
+    <t>UIpConnection* const MyServerConnection = GetServerConnection();</t>
+  </si>
+  <si>
+    <t>不断收包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection-&gt;ReceivedRawPacket((uint8*)ReceivedPacket.DataView.GetData(), ReceivedPacket.DataView.NumBytes());</t>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UIpConnection::ReceivedRawPacket(void* Data, int32 Count)</t>
+  </si>
+  <si>
+    <t>Super::ReceivedRawPacket(Data, Count);</t>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedRawPacket( void* InData, int32 Count )</t>
+  </si>
+  <si>
+    <t>ReceivedPacket(Reader);</t>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedPacket( FBitReader&amp; Reader, bool bIsReinjectedPacket)</t>
+  </si>
+  <si>
+    <t>// Read packet header</t>
+  </si>
+  <si>
+    <t>FNetPacketNotify::FNotificationHeader Header;</t>
+  </si>
+  <si>
+    <t>if (!PacketNotify.ReadHeader(Header, Reader))</t>
+  </si>
+  <si>
+    <t>读取包头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PacketNotify.Update(Header, HandlePacketNotification);</t>
+  </si>
+  <si>
+    <t>处理，回调到其HandlePacketNotification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">// Lambda to dispatch delivery notifications, </t>
+  </si>
+  <si>
+    <t>auto HandlePacketNotification = [&amp;Header, &amp;ChannelsToClose, this](FNetPacketNotify::SequenceNumberT AckedSequence, bool bDelivered)</t>
+  </si>
+  <si>
+    <t>// Increase LastNotifiedPacketId, this is a full packet Id</t>
+  </si>
+  <si>
+    <t>++LastNotifiedPacketId;</t>
+  </si>
+  <si>
+    <t>++OutTotalNotifiedPackets;</t>
+  </si>
+  <si>
+    <t>Driver-&gt;IncreaseOutTotalNotifiedPackets();</t>
+  </si>
+  <si>
+    <t>// Sanity check</t>
+  </si>
+  <si>
+    <t>if (FNetPacketNotify::SequenceNumberT(LastNotifiedPacketId) != AckedSequence)</t>
+  </si>
+  <si>
+    <t>CLOSE_CONNECTION_DUE_TO_SECURITY_VIOLATION(this, ESecurityEvent::Malformed_Packet, TEXT("LastNotifiedPacketId != AckedSequence"));</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>if (bDelivered)</t>
+  </si>
+  <si>
+    <t>ReceivedAck(LastNotifiedPacketId, ChannelsToClose);</t>
+  </si>
+  <si>
+    <t>ReceivedNak(LastNotifiedPacketId);</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>！！！执行ACK处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！何时在重新发了？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！没看到超时重发的机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void UNetDriver::ProcessRemoteFunctionForChannel(UActorChannel* Ch,const FClassNetCache* ClassCache,const FFieldNetCache* FieldCache,UObject* TargetObj,UNetConnection* Connection,UFunction* Function,void* Parms,FOutParmRec* OutParms,FFrame* Stack,const bool bIsServer,const ERemoteFunctionSendPolicy SendPolicy)</t>
-  </si>
-  <si>
-    <t>RPC发包过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EProcessRemoteFunctionFlags UnusedFlags = EProcessRemoteFunctionFlags::None;</t>
-  </si>
-  <si>
-    <t>ProcessRemoteFunctionForChannelPrivate(Ch, ClassCache, FieldCache, TargetObj, Connection, Function, Parms, OutParms, Stack, bIsServer, SendPolicy, UnusedFlags);</t>
-  </si>
-  <si>
-    <t>void UNetDriver::ProcessRemoteFunctionForChannelPrivate(UActorChannel* Ch,const FClassNetCache* ClassCache,const FFieldNetCache* FieldCache,UObject* TargetObj,UNetConnection* Connection,UFunction* Function,void* Parms,FOutParmRec* OutParms,FFrame* Stack,const bool bIsServer,const ERemoteFunctionSendPolicy SendPolicy,EProcessRemoteFunctionFlags&amp; RemoteFunctionFlags)</t>
-  </si>
-  <si>
-    <t>// Form the RPC preamble.</t>
-  </si>
-  <si>
-    <t>FOutBunch Bunch(Ch, 0);</t>
-  </si>
-  <si>
-    <t>if (Function-&gt;FunctionFlags &amp; FUNC_NetReliable)</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>Bunch.bReliable = 1;</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>是否可靠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>构造发送的Bunch，用于序列化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FNetBitWriter TempWriter( Bunch.PackageMap, 0 );</t>
-  </si>
-  <si>
-    <t>数据写入Bunch的PackageMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Use the replication layout to send the rpc parameter values</t>
-  </si>
-  <si>
-    <t>TSharedPtr&lt;FRepLayout&gt; RepLayout = GetFunctionRepLayout(Function);</t>
-  </si>
-  <si>
-    <t>RepLayout-&gt;SendPropertiesForRPC(Function, Ch, TempWriter, Parms);</t>
-  </si>
-  <si>
-    <t>设置发送的RPC参数，Params就是参数结构体的指针，需要根据Function的参数信息系列化具体的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数信息写入到TempWriter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WriteFieldHeaderAndPayload</t>
-  </si>
-  <si>
-    <t>写入Header和Payload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！Payload是啥？？？需要单独在分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！根据发送策略类型，判断是QueueSend还是直接Send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！这个发送策略，需要在分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (QueueBunch)</t>
-  </si>
-  <si>
-    <t>Ch-&gt;QueueRemoteFunctionBunch(TargetObj, Function, Bunch);</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>Ch-&gt;SendBunch(&amp;Bunch, true);</t>
-  </si>
-  <si>
-    <t>FPacketIdRange UChannel::SendBunch( FOutBunch* Bunch, bool Merge )</t>
-  </si>
-  <si>
-    <t>以SendBunch分析为例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一步，清空当前Connection的OutgoingBunches</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TArray&lt;FOutBunch*&gt;&amp; OutgoingBunches = Connection-&gt;GetOutgoingBunches();</t>
-  </si>
-  <si>
-    <t>OutgoingBunches.Reset();</t>
-  </si>
-  <si>
-    <t>第二步，设置一些必要信息？？？从Connection-&gt;PackageMap中设置？？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！需要在分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三步，如果当前Bunch比较大，则进行分包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if( Bunch-&gt;GetNumBits() &gt; MAX_SINGLE_BUNCH_SIZE_BITS )</t>
-  </si>
-  <si>
-    <t>！！！MAX_SINGLE_BUNCH_SIZE_BITS=7625？？Bits的话，算下来就是900多BYTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>while(bitsLeft &gt; 0)</t>
-  </si>
-  <si>
-    <t>拆包处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOutBunch * PartialBunch = new FOutBunch(this, false);</t>
-  </si>
-  <si>
-    <t>int64 bitsThisBunch = FMath::Min&lt;int64&gt;(bitsLeft, MAX_PARTIAL_BUNCH_SIZE_BITS);</t>
-  </si>
-  <si>
-    <t>PartialBunch-&gt;SerializeBits(data, bitsThisBunch);</t>
-  </si>
-  <si>
-    <t>OutgoingBunches.Add(PartialBunch);</t>
-  </si>
-  <si>
-    <t>else</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutgoingBunches.Add(Bunch);</t>
-  </si>
-  <si>
-    <t>！！！不管如何，都插入到OutgoingBunches里面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四步，遍历OutgoingBunches，挨个处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for( int32 PartialNum = 0; PartialNum &lt; OutgoingBunches.Num(); ++PartialNum)</t>
-  </si>
-  <si>
-    <t>FOutBunch * NextBunch = OutgoingBunches[PartialNum];</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;bReliable = Bunch-&gt;bReliable;</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;bOpen = Bunch-&gt;bOpen;</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;bClose = Bunch-&gt;bClose;</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;CloseReason = Bunch-&gt;CloseReason;</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;bIsReplicationPaused = Bunch-&gt;bIsReplicationPaused;</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;ChIndex = Bunch-&gt;ChIndex;</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;ChName = Bunch-&gt;ChName;</t>
-  </si>
-  <si>
-    <t>if ( !NextBunch-&gt;bHasPackageMapExports )</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;bHasMustBeMappedGUIDs |= Bunch-&gt;bHasMustBeMappedGUIDs;</t>
-  </si>
-  <si>
-    <t>if (OutgoingBunches.Num() &gt; 1)</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;bPartial = 1;</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;bPartialInitial = (PartialNum == 0 ? 1: 0);</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;bPartialFinal = (PartialNum == OutgoingBunches.Num() - 1 ? 1: 0);</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;bOpen &amp;= (PartialNum == 0);</t>
-  </si>
-  <si>
-    <t>// Only the first bunch should have the bOpen bit set</t>
-  </si>
-  <si>
-    <t>NextBunch-&gt;bClose = (Bunch-&gt;bClose &amp;&amp; (OutgoingBunches.Num()-1 == PartialNum)); // Only last bunch should have bClose bit set</t>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOutBunch *ThisOutBunch = PrepBunch(NextBunch, OutBunch, Merge);</t>
-  </si>
-  <si>
-    <t>// This handles queuing reliable bunches into the ack list</t>
-  </si>
-  <si>
-    <t>注意，这个比较重要，将可靠的Bunch放入OutRec中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class FOutBunch*</t>
-  </si>
-  <si>
-    <t>OutRec;</t>
-  </si>
-  <si>
-    <t>// Outgoing reliable unacked data</t>
-  </si>
-  <si>
-    <t>可靠的队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutBunch = new FOutBunch(*Bunch);</t>
-  </si>
-  <si>
-    <t>FOutBunch** OutLink = &amp;OutRec;</t>
-  </si>
-  <si>
-    <t>while(*OutLink) // This was rewritten from a single-line for loop due to compiler complaining about empty body for loops (-Wempty-body)</t>
-  </si>
-  <si>
-    <t>OutLink=&amp;(*OutLink)-&gt;Next;</t>
-  </si>
-  <si>
-    <t>*OutLink = OutBunch;</t>
-  </si>
-  <si>
-    <t>Bunch-&gt;ChSequence = ++Connection-&gt;OutReliable[ChIndex];</t>
-  </si>
-  <si>
-    <t>序列号++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在于Connection中，每一个Channel对应一个序列号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 PacketId = SendRawBunch(ThisOutBunch, Merge, GetTraceCollector(*NextBunch));</t>
-  </si>
-  <si>
-    <t>发送消息包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 UChannel::SendRawBunch(FOutBunch* OutBunch, bool Merge, const FNetTraceCollector* Collector)</t>
-  </si>
-  <si>
-    <t>发送实现原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Send the raw bunch.</t>
-  </si>
-  <si>
-    <t>OutBunch-&gt;ReceivedAck = 0;</t>
-  </si>
-  <si>
-    <t>int32 PacketId = Connection-&gt;SendRawBunch(*OutBunch, Merge, Collector);</t>
-  </si>
-  <si>
-    <t>！！！注意这个OutRec，可靠的Bunch都通过链表连起来了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 UNetConnection::SendRawBunch(FOutBunch&amp; Bunch, bool InAllowMerge, const FNetTraceCollector* BunchCollector)</t>
-  </si>
-  <si>
-    <t>// Build header.</t>
-  </si>
-  <si>
-    <t>构造消息包头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendBunchHeader.Reset();</t>
-  </si>
-  <si>
-    <t>SendBunchHeader.WriteBit(bIsOpenOrClose);</t>
-  </si>
-  <si>
-    <t>SendBunchHeader.WriteBit(Bunch.bIsReplicationPaused);</t>
-  </si>
-  <si>
-    <t>SendBunchHeader.WriteBit(Bunch.bReliable);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SendBunchHeader.SerializeIntPacked(ChIndex); </t>
-  </si>
-  <si>
-    <t>Bunch.PacketId = WriteBitsToSendBufferInternal(SendBunchHeader.GetData(), BunchHeaderBits, Bunch.GetData(), BunchBits, EWriteBitsDataType::Bunch);</t>
-  </si>
-  <si>
-    <t>将数据拷贝到底层的SendBuffer中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待FlushNet发送（可以直接发送，但是基本都是在TICK里面发送）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！可靠UDP的实现原理就在这个地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendBuffer初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UNetConnection::InitSendBuffer()</t>
-  </si>
-  <si>
-    <t>int32 FinalBufferSize = (MaxPacket * 8) - MaxPacketHandlerBits;</t>
-  </si>
-  <si>
-    <t>计算方式MaxPacket=1024，MaxPacketHandlerBits=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendBuffer = FBitWriter(FinalBufferSize);</t>
-  </si>
-  <si>
-    <t>FinalBufferSize=8190Bits，变成Byte也不会超过UDP的包长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">// If the bunch does not fit in the current packet, </t>
-  </si>
-  <si>
-    <t>// flush packet now so that we can report collected stats in the correct scope</t>
-  </si>
-  <si>
-    <t>PrepareWriteBitsToSendBuffer(BunchHeaderBits, BunchBits);</t>
-  </si>
-  <si>
-    <t>先检测SendBuffer剩余容量，如果剩余空间小于发送Bites，则强制先发送一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以看出来，整个可靠UDP的核心就是存在于Channel上面的OutRec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可靠的Bunch，发送前需要压入OutRec链表中，通过ACK来删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCLASS(abstract, transient)</t>
-  </si>
-  <si>
-    <t>class ENGINE_API Uchannel : public Uobject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>NumInRec;</t>
-  </si>
-  <si>
-    <t>// Number of packets in InRec.</t>
-  </si>
-  <si>
-    <t>NumOutRec;</t>
-  </si>
-  <si>
-    <t>// Number of packets in OutRec.</t>
-  </si>
-  <si>
-    <t>class FInBunch*</t>
-  </si>
-  <si>
-    <t>InRec;</t>
-  </si>
-  <si>
-    <t>// Incoming data with queued dependencies.</t>
-  </si>
-  <si>
-    <t>// Outgoing reliable unacked data.</t>
-  </si>
-  <si>
-    <t>InPartialBunch;</t>
-  </si>
-  <si>
-    <t>// Partial bunch we are receiving (incoming partial bunches are appended to this)</t>
-  </si>
-  <si>
-    <t>可靠的Bunch发送队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送时放入OutRec中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">收到ACK </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时发包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果超过一定时间没有收到ACK，需要再次发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UControlChannel</t>
-  </si>
-  <si>
-    <t>UControlChannel和UActorChannel实现不一样，前者就是简单信息，后者比较复杂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UControlChannel::Tick()</t>
-  </si>
-  <si>
-    <t>if( !OpenAcked )</t>
-  </si>
-  <si>
-    <t>如果设置了OpenAcked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集OutRec链表中没有收到ACK的个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超过8则不处理？？？？为啥不处理了？？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (Wait &gt; 1.0)</t>
-  </si>
-  <si>
-    <t>举例上次发包超过1秒，则重新发送（更新发送时间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connection-&gt;SendRawBunch( *Out, 0 );</t>
-  </si>
-  <si>
-    <t>遍历QueuedMessages，挨个进行发送处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>while (QueuedMessages.Num() &gt; 0 &amp;&amp; !Closing)</t>
-  </si>
-  <si>
-    <t>FControlChannelOutBunch Bunch(this, 0);</t>
-  </si>
-  <si>
-    <t>Bunch.SerializeBits(QueuedMessages[0].Data.GetData(), QueuedMessages[0].CountBits);</t>
-  </si>
-  <si>
-    <t>Super::SendBunch(&amp;Bunch, 1);</t>
-  </si>
-  <si>
-    <t>QueuedMessages.RemoveAt(0, 1);</t>
-  </si>
-  <si>
-    <t>挨个发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UIpNetDriver::TickDispatch(float DeltaTime)</t>
-  </si>
-  <si>
-    <t>for (FPacketIterator It(this); It; ++It)</t>
-  </si>
-  <si>
-    <t>FReceivedPacketView ReceivedPacket;</t>
-  </si>
-  <si>
-    <t>FInPacketTraits&amp; ReceivedTraits = ReceivedPacket.Traits;</t>
-  </si>
-  <si>
-    <t>bool bOk = It.GetCurrentPacket(ReceivedPacket);</t>
-  </si>
-  <si>
-    <t>const TSharedRef&lt;const FInternetAddr&gt; FromAddr = ReceivedPacket.Address.ToSharedRef();</t>
-  </si>
-  <si>
-    <t>UNetConnection* Connection = nullptr;</t>
-  </si>
-  <si>
-    <t>UIpConnection* const MyServerConnection = GetServerConnection();</t>
-  </si>
-  <si>
-    <t>不断收包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Connection-&gt;ReceivedRawPacket((uint8*)ReceivedPacket.DataView.GetData(), ReceivedPacket.DataView.NumBytes());</t>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UIpConnection::ReceivedRawPacket(void* Data, int32 Count)</t>
-  </si>
-  <si>
-    <t>Super::ReceivedRawPacket(Data, Count);</t>
-  </si>
-  <si>
-    <t>void UNetConnection::ReceivedRawPacket( void* InData, int32 Count )</t>
-  </si>
-  <si>
-    <t>ReceivedPacket(Reader);</t>
-  </si>
-  <si>
-    <t>void UNetConnection::ReceivedPacket( FBitReader&amp; Reader, bool bIsReinjectedPacket)</t>
-  </si>
-  <si>
-    <t>// Read packet header</t>
-  </si>
-  <si>
-    <t>FNetPacketNotify::FNotificationHeader Header;</t>
-  </si>
-  <si>
-    <t>if (!PacketNotify.ReadHeader(Header, Reader))</t>
-  </si>
-  <si>
-    <t>读取包头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PacketNotify.Update(Header, HandlePacketNotification);</t>
-  </si>
-  <si>
-    <t>处理，回调到其HandlePacketNotification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">// Lambda to dispatch delivery notifications, </t>
-  </si>
-  <si>
-    <t>auto HandlePacketNotification = [&amp;Header, &amp;ChannelsToClose, this](FNetPacketNotify::SequenceNumberT AckedSequence, bool bDelivered)</t>
-  </si>
-  <si>
-    <t>// Increase LastNotifiedPacketId, this is a full packet Id</t>
-  </si>
-  <si>
-    <t>++LastNotifiedPacketId;</t>
-  </si>
-  <si>
-    <t>++OutTotalNotifiedPackets;</t>
-  </si>
-  <si>
-    <t>Driver-&gt;IncreaseOutTotalNotifiedPackets();</t>
-  </si>
-  <si>
-    <t>// Sanity check</t>
-  </si>
-  <si>
-    <t>if (FNetPacketNotify::SequenceNumberT(LastNotifiedPacketId) != AckedSequence)</t>
-  </si>
-  <si>
-    <t>CLOSE_CONNECTION_DUE_TO_SECURITY_VIOLATION(this, ESecurityEvent::Malformed_Packet, TEXT("LastNotifiedPacketId != AckedSequence"));</t>
-  </si>
-  <si>
-    <t>return;</t>
-  </si>
-  <si>
-    <t>if (bDelivered)</t>
-  </si>
-  <si>
-    <t>ReceivedAck(LastNotifiedPacketId, ChannelsToClose);</t>
-  </si>
-  <si>
-    <t>ReceivedNak(LastNotifiedPacketId);</t>
-  </si>
-  <si>
-    <t>};</t>
-  </si>
-  <si>
-    <t>！！！执行ACK处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！何时在重新发了？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！没看到超时重发的机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,602 +1039,602 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17F22B7-E8AC-4886-AE53-76BB1DCDD149}">
   <dimension ref="B2:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="50" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="52" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="61" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D61" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="5:22" x14ac:dyDescent="0.2">
       <c r="F81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="5:22" x14ac:dyDescent="0.2">
       <c r="F82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="5:22" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q83" t="s">
         <v>65</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="84" spans="5:22" x14ac:dyDescent="0.2">
       <c r="F84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="5:22" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="5:22" x14ac:dyDescent="0.2">
       <c r="E87" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
     <row r="88" spans="5:22" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q88" t="s">
         <v>73</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="89" spans="5:22" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="V89" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="5:22" x14ac:dyDescent="0.2">
       <c r="G91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="5:22" x14ac:dyDescent="0.2">
       <c r="G92" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="5:22" x14ac:dyDescent="0.2">
       <c r="G93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="5:22" x14ac:dyDescent="0.2">
       <c r="G95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="5:22" x14ac:dyDescent="0.2">
       <c r="G96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="5:21" x14ac:dyDescent="0.2">
       <c r="G97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="5:21" x14ac:dyDescent="0.2">
       <c r="G98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="5:21" x14ac:dyDescent="0.2">
       <c r="H99" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="5:21" x14ac:dyDescent="0.2">
       <c r="G100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="5:21" x14ac:dyDescent="0.2">
       <c r="G101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E103" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F106" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F107" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108" spans="5:21" x14ac:dyDescent="0.2">
       <c r="G108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="5:21" x14ac:dyDescent="0.2">
       <c r="G109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="5:21" x14ac:dyDescent="0.2">
       <c r="G110" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G114" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G116" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="7:8" x14ac:dyDescent="0.2">
       <c r="H121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G124" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G127" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G130" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G131" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G132" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D141" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D143" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1682,68 +1683,68 @@
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="s">
         <v>119</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>120</v>
-      </c>
-      <c r="G9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
         <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
         <v>124</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>125</v>
-      </c>
-      <c r="G11" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1751,18 +1752,18 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
         <v>128</v>
-      </c>
-      <c r="G13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
@@ -1770,13 +1771,13 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
@@ -1787,301 +1788,301 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
         <v>134</v>
-      </c>
-      <c r="C20" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="F27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="F28" t="s">
+        <v>141</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G38" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E86" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -2093,7 +2094,7 @@
     </row>
     <row r="87" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E87" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -2106,7 +2107,7 @@
     <row r="88" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -2115,12 +2116,12 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="O88" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E89" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -2130,12 +2131,12 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="O89" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E90" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -2145,12 +2146,12 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="O90" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E91" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -2163,7 +2164,7 @@
     <row r="92" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -2174,7 +2175,7 @@
     </row>
     <row r="93" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E93" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2186,12 +2187,12 @@
     </row>
     <row r="94" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_udp.xlsx
+++ b/doc/ue_udp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65CDED-77A8-4DAA-85B3-E55E19B32598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489C8D56-0862-4373-A1B9-00117FB24DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="可靠UDP发包" sheetId="3" r:id="rId5"/>
     <sheet name="非可靠UDP收包" sheetId="4" r:id="rId6"/>
     <sheet name="可靠UDP收包" sheetId="5" r:id="rId7"/>
+    <sheet name="ACK机制" sheetId="8" r:id="rId8"/>
+    <sheet name="Packet" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="322">
   <si>
     <t>底层同步使用的UDP通讯，分为可靠和非可靠同步，所以，有必要把这两部分分析一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -610,68 +612,518 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>处理，回调到其HandlePacketNotification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">// Lambda to dispatch delivery notifications, </t>
+  </si>
+  <si>
+    <t>auto HandlePacketNotification = [&amp;Header, &amp;ChannelsToClose, this](FNetPacketNotify::SequenceNumberT AckedSequence, bool bDelivered)</t>
+  </si>
+  <si>
+    <t>// Increase LastNotifiedPacketId, this is a full packet Id</t>
+  </si>
+  <si>
+    <t>++LastNotifiedPacketId;</t>
+  </si>
+  <si>
+    <t>++OutTotalNotifiedPackets;</t>
+  </si>
+  <si>
+    <t>Driver-&gt;IncreaseOutTotalNotifiedPackets();</t>
+  </si>
+  <si>
+    <t>// Sanity check</t>
+  </si>
+  <si>
+    <t>if (FNetPacketNotify::SequenceNumberT(LastNotifiedPacketId) != AckedSequence)</t>
+  </si>
+  <si>
+    <t>CLOSE_CONNECTION_DUE_TO_SECURITY_VIOLATION(this, ESecurityEvent::Malformed_Packet, TEXT("LastNotifiedPacketId != AckedSequence"));</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>if (bDelivered)</t>
+  </si>
+  <si>
+    <t>ReceivedAck(LastNotifiedPacketId, ChannelsToClose);</t>
+  </si>
+  <si>
+    <t>ReceivedNak(LastNotifiedPacketId);</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>！！！执行ACK处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！何时在重新发了？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！没看到超时重发的机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetDriver::ProcessRemoteFunctionForChannel(UActorChannel* Ch,const FClassNetCache* ClassCache,const FFieldNetCache* FieldCache,UObject* TargetObj,UNetConnection* Connection,UFunction* Function,void* Parms,FOutParmRec* OutParms,FFrame* Stack,const bool bIsServer,const ERemoteFunctionSendPolicy SendPolicy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回包ACK处理流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收ACK处理流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PacketNotify.Update(Header, HandlePacketNotification);</t>
-  </si>
-  <si>
-    <t>处理，回调到其HandlePacketNotification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">// Lambda to dispatch delivery notifications, </t>
-  </si>
-  <si>
-    <t>auto HandlePacketNotification = [&amp;Header, &amp;ChannelsToClose, this](FNetPacketNotify::SequenceNumberT AckedSequence, bool bDelivered)</t>
-  </si>
-  <si>
-    <t>// Increase LastNotifiedPacketId, this is a full packet Id</t>
-  </si>
-  <si>
-    <t>++LastNotifiedPacketId;</t>
-  </si>
-  <si>
-    <t>++OutTotalNotifiedPackets;</t>
-  </si>
-  <si>
-    <t>Driver-&gt;IncreaseOutTotalNotifiedPackets();</t>
-  </si>
-  <si>
-    <t>// Sanity check</t>
-  </si>
-  <si>
-    <t>if (FNetPacketNotify::SequenceNumberT(LastNotifiedPacketId) != AckedSequence)</t>
-  </si>
-  <si>
-    <t>CLOSE_CONNECTION_DUE_TO_SECURITY_VIOLATION(this, ESecurityEvent::Malformed_Packet, TEXT("LastNotifiedPacketId != AckedSequence"));</t>
-  </si>
-  <si>
-    <t>return;</t>
-  </si>
-  <si>
-    <t>if (bDelivered)</t>
-  </si>
-  <si>
-    <t>ReceivedAck(LastNotifiedPacketId, ChannelsToClose);</t>
-  </si>
-  <si>
-    <t>ReceivedNak(LastNotifiedPacketId);</t>
-  </si>
-  <si>
-    <t>};</t>
-  </si>
-  <si>
-    <t>！！！执行ACK处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！何时在重新发了？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！没看到超时重发的机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void UNetDriver::ProcessRemoteFunctionForChannel(UActorChannel* Ch,const FClassNetCache* ClassCache,const FFieldNetCache* FieldCache,UObject* TargetObj,UNetConnection* Connection,UFunction* Function,void* Parms,FOutParmRec* OutParms,FFrame* Stack,const bool bIsServer,const ERemoteFunctionSendPolicy SendPolicy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetConnection::FlushNet(bool bIgnoreSimulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在调用FlushNet发送SendBuffer时，需要设置Packet Header </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Refresh outgoing header with latest data</t>
+  </si>
+  <si>
+    <t>if ( !IsInternalAck() )</t>
+  </si>
+  <si>
+    <t>// if we update ack, we also update received ack associated with outgoing seq</t>
+  </si>
+  <si>
+    <t>// so we know how many ack bits we need to write (which is updated in received packet)</t>
+  </si>
+  <si>
+    <t>WritePacketHeader(SendBuffer);</t>
+  </si>
+  <si>
+    <t>WriteFinalPacketInfo(SendBuffer, PacketSentTimeInS);</t>
+  </si>
+  <si>
+    <t>只要是发Packet就需要设置PacketHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetConnection::WritePacketHeader(FBitWriter&amp; Writer)</t>
+  </si>
+  <si>
+    <t>仅仅把Header信息写入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Write notification header or refresh the header if used space is the same.</t>
+  </si>
+  <si>
+    <t>bool bWroteHeader = PacketNotify.WriteHeader(Writer, bIsHeaderUpdate);</t>
+  </si>
+  <si>
+    <t>从最开始写入，这个地方做了一个特出处理，先把写入位置存下来，等写入后在设置回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FNetPacketNotify::WriteHeader(FBitWriter&amp; Writer, bool bRefresh)</t>
+  </si>
+  <si>
+    <t>写入Header，就是Seq，InAckSeq和WrittenHistoryWordCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceNumberT::SequenceT Seq = OutSeq.Get();</t>
+  </si>
+  <si>
+    <t>SequenceNumberT::SequenceT AckedSeq = InAckSeq.Get();</t>
+  </si>
+  <si>
+    <t>// Pack data into a uint</t>
+  </si>
+  <si>
+    <t>uint32 PackedHeader = FPackedHeader::Pack(Seq, AckedSeq, WrittenHistoryWordCount - 1);</t>
+  </si>
+  <si>
+    <t>// Write packed header</t>
+  </si>
+  <si>
+    <t>Writer &lt;&lt; PackedHeader;</t>
+  </si>
+  <si>
+    <t>注意，最终将这三个数据，存储成了一个int(32位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packet的Seq和AckSeq等都在FNetPacketNotify里面管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个OutSeq何时++了？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用底层接口发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowLevelSend(SendBuffer.GetData(), SendBuffer.GetNumBits(), Traits);</t>
+  </si>
+  <si>
+    <t>写入包头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PacketNotify.CommitAndIncrementOutSeq();</t>
+  </si>
+  <si>
+    <t>对应的OutSeq++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是在调用FlushNet时设置的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PacketHeader使用一个int表示，分为是14位的Seq，14位的InAckSeq和4位的WorldCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！WorldCount是啥意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先读取PacketHeader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int32 PacketSequenceDelta = PacketNotify.GetSequenceDelta(Header);</t>
+  </si>
+  <si>
+    <t>判断跳过了几个Seq???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FNetPacketNotify</t>
+  </si>
+  <si>
+    <t>// Track incoming sequence data</t>
+  </si>
+  <si>
+    <t>SequenceHistoryT InSeqHistory;</t>
+  </si>
+  <si>
+    <t>// BitBuffer containing a bitfield describing the history of received packets</t>
+  </si>
+  <si>
+    <t>SequenceNumberT InSeq;</t>
+  </si>
+  <si>
+    <t>// Last sequence number received and accepted from remote</t>
+  </si>
+  <si>
+    <t>SequenceNumberT InAckSeq;</t>
+  </si>
+  <si>
+    <t>SequenceNumberT InAckSeqAck;</t>
+  </si>
+  <si>
+    <t>// Last sequence number received from remote that we have acknowledged and also knows that the remote has received the ack, used to calculate how big our history must be</t>
+  </si>
+  <si>
+    <t>// Track outgoing sequence data</t>
+  </si>
+  <si>
+    <t>SequenceNumberT OutSeq;</t>
+  </si>
+  <si>
+    <t>// Outgoing sequence number</t>
+  </si>
+  <si>
+    <t>SequenceNumberT OutAckSeq;</t>
+  </si>
+  <si>
+    <t>// Last sequence number that we know that the remote side have received.</t>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceNumberT::DifferenceT GetSequenceDelta(const FNotificationHeader&amp; NotificationData)</t>
+  </si>
+  <si>
+    <t>if (NotificationData.Seq &gt; InSeq &amp;&amp; NotificationData.AckedSeq &gt;= OutAckSeq &amp;&amp; OutSeq &gt; NotificationData.AckedSeq)</t>
+  </si>
+  <si>
+    <t>return SequenceNumberT::Diff(NotificationData.Seq, InSeq);</t>
+  </si>
+  <si>
+    <t>return 0;</t>
+  </si>
+  <si>
+    <t>逻辑比较奇怪，为啥三个条件都要满足？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Last sequence number received from remote that we have acknowledged, this is needed since we support accepting a packet but explicitly not acknowledge it as received.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (PacketSequenceDelta &gt; 0)</t>
+  </si>
+  <si>
+    <t>异常包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InPacketId += PacketSequenceDelta;</t>
+  </si>
+  <si>
+    <t>设置InPacketId，在当前的InSeq上加上本地收到的偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这个返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UNetConnection::ReceivedNak( int32 NakPacketId )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这个函数里面才会触发可靠Bunch的重发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯分为Packet和Bunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要解决乱序，不处理丢包（即使每次重传，对应的Seq都++）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决乱序和丢包，可靠性传输主要说的就是Bunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！主要解决的是在一次Tick内收到packet的乱序问题，在一次Tick内收到的Packet如果不是连续的，Seq有跳跃则缓存下来，在Tick中集中处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带了Seq,Ack等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！ACK涉及到重传Bunch，那如果一直没有得到对端消息包，我们也就不用重传了吗？？？！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if ( Bunch.bReliable &amp;&amp; Bunch.ChSequence &lt;= InReliable[Bunch.ChIndex] )</t>
+  </si>
+  <si>
+    <t>UE_LOG( LogNetTraffic, Log, TEXT( "UNetConnection::ReceivedPacket: Received outdated bunch (Channel %d Current Sequence %i)" ), Bunch.ChIndex, InReliable[Bunch.ChIndex] );</t>
+  </si>
+  <si>
+    <t>check( !IsInternalAck() );</t>
+  </si>
+  <si>
+    <t>// Should be impossible with 100% reliable connections</t>
+  </si>
+  <si>
+    <t>continue;</t>
+  </si>
+  <si>
+    <t>如果当前Bunch的ChSequeuence比目前已经处理的小，则表示不需要管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UChannel::ReceivedRawBunch( FInBunch &amp; Bunch, bool &amp; bOutSkipAck )</t>
+  </si>
+  <si>
+    <t>if ( Bunch.bReliable &amp;&amp; Bunch.ChSequence != Connection-&gt;InReliable[ChIndex] + 1 )</t>
+  </si>
+  <si>
+    <t>如果当前是可靠的，但是Sequence不等于下一个，则缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FInBunch** InPtr;</t>
+  </si>
+  <si>
+    <t>for( InPtr=&amp;InRec; *InPtr; InPtr=&amp;(*InPtr)-&gt;Next )</t>
+  </si>
+  <si>
+    <t>if( Bunch.ChSequence==(*InPtr)-&gt;ChSequence )</t>
+  </si>
+  <si>
+    <t>// Already queued.</t>
+  </si>
+  <si>
+    <t>else if( Bunch.ChSequence&lt;(*InPtr)-&gt;ChSequence )</t>
+  </si>
+  <si>
+    <t>// Stick before this one.</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>FInBunch* New = new FInBunch(Bunch);</t>
+  </si>
+  <si>
+    <t>New-&gt;Next     = *InPtr;</t>
+  </si>
+  <si>
+    <t>*InPtr        = New;</t>
+  </si>
+  <si>
+    <t>NumInRec++;</t>
+  </si>
+  <si>
+    <t>！！！注意，这个InRec就是接收方的可靠队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool bDeleted = ReceivedNextBunch( Bunch, bOutSkipAck );</t>
+  </si>
+  <si>
+    <t>表示当前就是下一个Seq的Bunch，直接处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Dispatch any waiting bunches.</t>
+  </si>
+  <si>
+    <t>while( InRec )</t>
+  </si>
+  <si>
+    <t>处理完当前的，继续看看接收方可靠队列里面有顺序的下一个，继续处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( InRec-&gt;ChSequence!=Connection-&gt;InReliable[ChIndex]+1 )</t>
+  </si>
+  <si>
+    <t>FInBunch* Release = InRec;</t>
+  </si>
+  <si>
+    <t>InRec = InRec-&gt;Next;</t>
+  </si>
+  <si>
+    <t>NumInRec--;</t>
+  </si>
+  <si>
+    <t>bDeleted = ReceivedNextBunch( *Release, bLocalSkipAck );</t>
+  </si>
+  <si>
+    <t>Bunch的可靠性，分为：发送方的可靠性队列OutRec和接收方的可靠性队列InRec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！接收时，如果不是下一个Seq的Bunch就缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！发送时，只要是可靠的Bunch都缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！通过可靠的接收队列，解决了UDP的乱序和丢包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装好Bunch，发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前底层的SendBuffer超了，则直接先把当前的发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断Bunch拆分，大包拆分成小包，放入OutgoingBunches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历OutgoingBunches，挨个发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOutBunch *ThisOutBunch = PrepBunch(NextBunch, OutBunch, Merge); // This handles queuing reliable bunches into the ack list</t>
+  </si>
+  <si>
+    <t>注意，如果当前Bunch是可靠的，则放入到OutRec队列里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个OutRec的可靠发送队列，居然没有超时重发的规则，只有收到对方Packet后，根据Ack来判断重发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +1131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +1162,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -731,10 +1200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1015,17 +1486,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4"/>
+  <dimension ref="B4:S83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>265</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>309</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="S17" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C21" s="3"/>
+      <c r="E21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="G24" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="H29" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="H30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="H31" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E32" s="3"/>
+      <c r="H32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E34" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E35" s="3"/>
+      <c r="F35" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G44" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>285</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J57" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H67" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H70" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="J75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I77" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I79" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17F22B7-E8AC-4886-AE53-76BB1DCDD149}">
   <dimension ref="B2:V144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -1052,7 +1929,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -1426,12 +2303,12 @@
         <v>68</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="V89" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="5:22" x14ac:dyDescent="0.2">
@@ -1675,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BC9F48-E608-439E-8BCB-F8A221040F8A}">
   <dimension ref="B3:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2012,17 +2889,17 @@
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.2">
@@ -2032,32 +2909,32 @@
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="4:15" x14ac:dyDescent="0.2">
@@ -2067,12 +2944,12 @@
     </row>
     <row r="82" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="4:15" x14ac:dyDescent="0.2">
@@ -2082,7 +2959,7 @@
     </row>
     <row r="86" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E86" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -2107,7 +2984,7 @@
     <row r="88" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -2131,7 +3008,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="O89" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="4:15" x14ac:dyDescent="0.2">
@@ -2164,7 +3041,7 @@
     <row r="92" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -2175,7 +3052,7 @@
     </row>
     <row r="93" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E93" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2187,12 +3064,12 @@
     </row>
     <row r="94" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2227,4 +3104,512 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6766D05F-592F-4A2E-9B88-484211E5FAAC}">
+  <dimension ref="B6:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108741A2-D283-4D33-BB88-6FE63CB1D86F}">
+  <dimension ref="A2:T84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>237</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" t="s">
+        <v>254</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" t="s">
+        <v>242</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" t="s">
+        <v>243</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="D18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>226</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T54" s="4"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>213</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>214</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>255</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>258</v>
+      </c>
+      <c r="N75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+      <c r="O76" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="O77" t="s">
+        <v>8</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>256</v>
+      </c>
+      <c r="O79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>257</v>
+      </c>
+      <c r="O80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>163</v>
+      </c>
+      <c r="O81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="N84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_udp.xlsx
+++ b/doc/ue_udp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489C8D56-0862-4373-A1B9-00117FB24DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5547F05-AC1C-407E-ADEF-8CD58D4AF7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="可靠UDP收包" sheetId="5" r:id="rId7"/>
     <sheet name="ACK机制" sheetId="8" r:id="rId8"/>
     <sheet name="Packet" sheetId="9" r:id="rId9"/>
+    <sheet name="Packet-Bunch包格式" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="416">
   <si>
     <t>底层同步使用的UDP通讯，分为可靠和非可靠同步，所以，有必要把这两部分分析一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1124,6 +1125,323 @@
   </si>
   <si>
     <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠UDP本质就是解决：乱序和丢包；然后为了性能，一般虚配合UDP的特性进行特殊化处理（消息包大小有限制，不能拆过1000多字节等，最好进行小包合并，大包拆分等等的策略）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次发送Bunch，都是存在于底层的SendBuffer中，这个SendBuffer就是1000字节左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关Packet格式分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到UDP消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSE_CONNECTION_DUE_TO_SECURITY_VIOLATION(this, ESecurityEvent::Malformed_Packet, TEXT("Failed to read PacketHeader"));</t>
+  </si>
+  <si>
+    <t>struct FNotificationHeader</t>
+  </si>
+  <si>
+    <t>SequenceHistoryT History;</t>
+  </si>
+  <si>
+    <t>SIZE_T HistoryWordCount;</t>
+  </si>
+  <si>
+    <t>SequenceNumberT Seq;</t>
+  </si>
+  <si>
+    <t>SequenceNumberT AckedSeq;</t>
+  </si>
+  <si>
+    <t>包头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FNetPacketNotify::ReadHeader(FNotificationHeader&amp; Data, FBitReader&amp; Reader) const</t>
+  </si>
+  <si>
+    <t>// Read packed header</t>
+  </si>
+  <si>
+    <t>uint32 PackedHeader = 0;</t>
+  </si>
+  <si>
+    <t>Reader &lt;&lt; PackedHeader;</t>
+  </si>
+  <si>
+    <t>// unpack</t>
+  </si>
+  <si>
+    <t>Data.Seq = FPackedHeader::GetSeq(PackedHeader);</t>
+  </si>
+  <si>
+    <t>Data.AckedSeq = FPackedHeader::GetAckedSeq(PackedHeader);</t>
+  </si>
+  <si>
+    <t>Data.HistoryWordCount = FPackedHeader::GetHistoryWordCount(PackedHeader) + 1;</t>
+  </si>
+  <si>
+    <t>// Read ack history</t>
+  </si>
+  <si>
+    <t>Data.History.Read(Reader, Data.HistoryWordCount);</t>
+  </si>
+  <si>
+    <t>UE_LOG_PACKET_NOTIFY(TEXT("FNetPacketNotify::ReadHeader - Seq %u, AckedSeq %u HistorySizeInWords %u"), Data.Seq.Get(), Data.AckedSeq.Get(), Data.HistoryWordCount);</t>
+  </si>
+  <si>
+    <t>return Reader.IsError() == false;</t>
+  </si>
+  <si>
+    <t>读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先读取一个INT。里面包含了14位的Seq和14位的AckedSeq+4位的HistoryWorldCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从INT计算出SEQ等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据HistoryWorldCount读取对应的历史ACK信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取HistoryWorldCount个INT32，注意，其实最大也只能读取8个INT，虽然四位最大是15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同判断判断不同的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如负载之类的数据读取等判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！此处不做深入研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始读取Packet内部的Bunch数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到UDP后，进行安全校验，读取最后一个BYTE，然后计算数据的bitcount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取Packet Header，读取对应的History Ack列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取Bunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环读取Bunch--一个Packet可能包含多个Bunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，一个Packet可能包含多个Bunch，所以是一个While读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Parse the incoming data.</t>
+  </si>
+  <si>
+    <t>FInBunch Bunch( this );</t>
+  </si>
+  <si>
+    <t>int32 IncomingStartPos</t>
+  </si>
+  <si>
+    <t>= Reader.GetPosBits();</t>
+  </si>
+  <si>
+    <t>uint8 bControl</t>
+  </si>
+  <si>
+    <t>= Reader.ReadBit();</t>
+  </si>
+  <si>
+    <t>Bunch.PacketId</t>
+  </si>
+  <si>
+    <t>= InPacketId;</t>
+  </si>
+  <si>
+    <t>Bunch.bOpen</t>
+  </si>
+  <si>
+    <t>= bControl ? Reader.ReadBit() : 0;</t>
+  </si>
+  <si>
+    <t>Bunch.bClose</t>
+  </si>
+  <si>
+    <t>if (Bunch.EngineNetVer() &lt; HISTORY_CHANNEL_CLOSE_REASON)</t>
+  </si>
+  <si>
+    <t>const uint8 bDormant = Bunch.bClose ? Reader.ReadBit() : 0;</t>
+  </si>
+  <si>
+    <t>Bunch.CloseReason = bDormant ? EChannelCloseReason::Dormancy : EChannelCloseReason::Destroyed;</t>
+  </si>
+  <si>
+    <t>Bunch.CloseReason = Bunch.bClose ? (EChannelCloseReason)Reader.ReadInt((uint32)EChannelCloseReason::MAX) : EChannelCloseReason::Destroyed;</t>
+  </si>
+  <si>
+    <t>Bunch.bIsReplicationPaused  = Reader.ReadBit();</t>
+  </si>
+  <si>
+    <t>Bunch.bReliable</t>
+  </si>
+  <si>
+    <t>if (Bunch.EngineNetVer() &lt; HISTORY_MAX_ACTOR_CHANNELS_CUSTOMIZATION)</t>
+  </si>
+  <si>
+    <t>static const int OLD_MAX_ACTOR_CHANNELS = 10240;</t>
+  </si>
+  <si>
+    <t>Bunch.ChIndex = Reader.ReadInt(OLD_MAX_ACTOR_CHANNELS);</t>
+  </si>
+  <si>
+    <t>uint32 ChIndex;</t>
+  </si>
+  <si>
+    <t>Reader.SerializeIntPacked(ChIndex);</t>
+  </si>
+  <si>
+    <t>if (ChIndex &gt;= (uint32)MaxChannelSize)</t>
+  </si>
+  <si>
+    <t>CLOSE_CONNECTION_DUE_TO_SECURITY_VIOLATION(this, ESecurityEvent::Malformed_Packet, TEXT("Bunch channel index exceeds channel limit"));</t>
+  </si>
+  <si>
+    <t>Bunch.ChIndex = ChIndex;</t>
+  </si>
+  <si>
+    <t>！！！Bunch要这个PacketId是做什么用的了？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！Open是啥意思？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！Close有事啥意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！通过的Index，判断是哪一个Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！时候可靠？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunch.bHasPackageMapExports</t>
+  </si>
+  <si>
+    <t>Bunch.bHasMustBeMappedGUIDs</t>
+  </si>
+  <si>
+    <t>Bunch.bPartial</t>
+  </si>
+  <si>
+    <t>if ( Bunch.bReliable )</t>
+  </si>
+  <si>
+    <t>if ( IsInternalAck() )</t>
+  </si>
+  <si>
+    <t>// We can derive the sequence for 100% reliable connections</t>
+  </si>
+  <si>
+    <t>Bunch.ChSequence = InReliable[Bunch.ChIndex] + 1;</t>
+  </si>
+  <si>
+    <t>// If this is a reliable bunch, use the last processed reliable sequence to read the new reliable sequence</t>
+  </si>
+  <si>
+    <t>Bunch.ChSequence = MakeRelative( Reader.ReadInt( MAX_CHSEQUENCE ), InReliable[Bunch.ChIndex], MAX_CHSEQUENCE );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t>// If this is an unreliable partial bunch, we simply use packet sequence since we already have it</t>
+  </si>
+  <si>
+    <t>Bunch.ChSequence = InPacketId;</t>
+  </si>
+  <si>
+    <t>Bunch.ChSequence = 0;</t>
+  </si>
+  <si>
+    <t>这个比较重要，读取Channel相关的Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！解决乱序的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else if ( Bunch.bPartial )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！部分包的特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunch.bPartialInitial = Bunch.bPartial ? Reader.ReadBit() : 0;</t>
+  </si>
+  <si>
+    <t>Bunch.bPartialFinal = Bunch.bPartial ? Reader.ReadBit() : 0;</t>
+  </si>
+  <si>
+    <t>！！！读取ChannelName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！如果对应的Channle还没创建，则根据chName和chIndex新创建一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel-&gt;ReceivedRawBunch( Bunch, bLocalSkipAck ); //warning: May destroy channel.</t>
+  </si>
+  <si>
+    <t>Channel进行Bunch消息包的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次发包Packet，对应的Seq就++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UChannel::PrepBunch(FOutBunch* Bunch, FOutBunch* OutBunch, bool Merge)中处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次发包Bunch时，只有可靠的Bunch其ChSequence++；放入可靠发送队列中该值不变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packet携带的ACK消息，会触发本地Bunch重传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,30 +1804,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:S83"/>
+  <dimension ref="B1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>1</v>
       </c>
@@ -1520,7 +1854,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>2</v>
       </c>
@@ -1534,374 +1868,390 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>415</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>414</v>
+      </c>
+      <c r="M16" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>309</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="S17" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="M18" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
+      <c r="S18" s="1" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
-      <c r="D20" s="1" t="s">
-        <v>268</v>
-      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
-      <c r="E21" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>321</v>
+      <c r="D21" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="1" t="s">
-        <v>313</v>
+      <c r="E22" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" t="s">
-        <v>29</v>
+      <c r="F23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="G24" s="1" t="s">
-        <v>314</v>
+      <c r="F24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>315</v>
+      <c r="G25" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="E26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="G27" t="s">
-        <v>49</v>
+      <c r="G27" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="H28" t="s">
-        <v>50</v>
+      <c r="G28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="H29" s="1" t="s">
-        <v>318</v>
+      <c r="H29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="H30" t="s">
-        <v>317</v>
+      <c r="H30" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="H32" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="E32" s="3"/>
-      <c r="H32" t="s">
+    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E33" s="3"/>
+      <c r="H33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E34" s="3" t="s">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E35" s="3"/>
-      <c r="F35" s="1" t="s">
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="3"/>
+      <c r="F36" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="G38" t="s">
+    <row r="39" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="G39" t="s">
+    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
         <v>277</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="G40" t="s">
+    <row r="41" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
+    <row r="42" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
+    <row r="44" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="G44" s="1" t="s">
+    <row r="45" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G45" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="G45" t="s">
+    <row r="46" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="H47" t="s">
+    <row r="48" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="48" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="H48" t="s">
+    <row r="49" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
         <v>285</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="O49" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H49" t="s">
+    <row r="50" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="I50" t="s">
+    <row r="51" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="I51" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="I51" t="s">
+    <row r="52" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J52" t="s">
+    <row r="53" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J53" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J53" t="s">
+    <row r="54" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J54" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="I54" t="s">
+    <row r="55" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="I55" t="s">
+    <row r="56" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="I56" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="I56" t="s">
+    <row r="57" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J57" t="s">
+    <row r="58" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J58" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="J58" t="s">
+    <row r="59" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="J59" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="I59" t="s">
+    <row r="60" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H60" t="s">
+    <row r="61" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H62" t="s">
+    <row r="63" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H63" t="s">
+    <row r="64" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="64" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H64" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H65" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G66" t="s">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H67" s="1" t="s">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H68" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H68" t="s">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H70" s="1" t="s">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H71" s="1" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H71" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H72" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I74" t="s">
+    <row r="75" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I75" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="J75" t="s">
+    <row r="76" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="J76" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I77" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I78" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.2">
       <c r="I79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="I81" t="s">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I82" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H83" t="s">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
         <v>303</v>
       </c>
     </row>
@@ -1909,6 +2259,772 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06212023-4534-4F6E-A103-291E17779071}">
+  <dimension ref="B2:S143"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="N135" sqref="N135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="R16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="R17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="S18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>326</v>
+      </c>
+      <c r="S20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+      <c r="S21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>342</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C48" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>361</v>
+      </c>
+      <c r="H61" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>363</v>
+      </c>
+      <c r="H62" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>365</v>
+      </c>
+      <c r="H63" t="s">
+        <v>366</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>367</v>
+      </c>
+      <c r="H64" t="s">
+        <v>368</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>369</v>
+      </c>
+      <c r="H65" t="s">
+        <v>368</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>375</v>
+      </c>
+      <c r="I78" t="s">
+        <v>364</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>378</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>379</v>
+      </c>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>380</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>381</v>
+      </c>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="5:19" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>389</v>
+      </c>
+      <c r="I100" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="101" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>390</v>
+      </c>
+      <c r="I101" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="102" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>391</v>
+      </c>
+      <c r="I102" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E105" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="106" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="107" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="109" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="111" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="112" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="116" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="117" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E118" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="120" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="122" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>400</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E124" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E130" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E131" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E134" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E138" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E142" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E143" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3140,7 +4256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108741A2-D283-4D33-BB88-6FE63CB1D86F}">
   <dimension ref="A2:T84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_udp.xlsx
+++ b/doc/ue_udp.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5547F05-AC1C-407E-ADEF-8CD58D4AF7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3920958-F823-4FC6-912A-77A71E12F898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="736" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
-    <sheet name="UDP-RPC发包" sheetId="6" r:id="rId2"/>
-    <sheet name="UDP收包" sheetId="7" r:id="rId3"/>
-    <sheet name="非可靠UDP发包" sheetId="2" r:id="rId4"/>
-    <sheet name="可靠UDP发包" sheetId="3" r:id="rId5"/>
-    <sheet name="非可靠UDP收包" sheetId="4" r:id="rId6"/>
-    <sheet name="可靠UDP收包" sheetId="5" r:id="rId7"/>
-    <sheet name="ACK机制" sheetId="8" r:id="rId8"/>
-    <sheet name="Packet" sheetId="9" r:id="rId9"/>
-    <sheet name="Packet-Bunch包格式" sheetId="10" r:id="rId10"/>
+    <sheet name="Packet的可靠传输" sheetId="11" r:id="rId2"/>
+    <sheet name="UDP-RPC发包" sheetId="6" r:id="rId3"/>
+    <sheet name="UDP收包" sheetId="7" r:id="rId4"/>
+    <sheet name="非可靠UDP发包" sheetId="2" r:id="rId5"/>
+    <sheet name="可靠UDP发包" sheetId="3" r:id="rId6"/>
+    <sheet name="非可靠UDP收包" sheetId="4" r:id="rId7"/>
+    <sheet name="可靠UDP收包" sheetId="5" r:id="rId8"/>
+    <sheet name="ACK机制" sheetId="8" r:id="rId9"/>
+    <sheet name="Packet" sheetId="9" r:id="rId10"/>
+    <sheet name="Packet-Bunch包格式" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="453">
   <si>
     <t>底层同步使用的UDP通讯，分为可靠和非可靠同步，所以，有必要把这两部分分析一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1442,6 +1444,151 @@
   </si>
   <si>
     <t>Packet携带的ACK消息，会触发本地Bunch重传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！涉及到重传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可靠的UDP发包，发送的时候合并到SendBuffer，该发就发，丢了就丢了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，对于非可靠的消息包，一般都是依赖频繁发包：例如Move的消息包，频繁会发包，然后逻辑层修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组包，拆包等操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，非可靠的Bunch没有ChSequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return PacketId;</t>
+  </si>
+  <si>
+    <t>拷贝到Sendbuffer里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待在TICK或者满的时候发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非可靠的Bunch面临乱序和丢包问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要看这两部分怎么处理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunch是通过Packet携带发送过来的，而Packet在处理时确保的了顺序，所以不存在乱序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非可靠的Bunch不会重发，丢了就丢了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看Bunch如何实现的可靠传输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠的UDP Bunch消息包，也面临乱序和丢包，依赖于Packet传入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！Packet不重传，每次都生成新的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunch主要依赖于Packet传入的，而Packet在处理时严格按照顺序处理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是可靠Bunch会面临重传，仅仅依赖于Packet肯定做不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以还存在一个Bunch的可靠性顺序队列：Uchannel::InRec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！主要就是先后顺序问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！重传通过Packet的ACK实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖于Packet的ACK实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bunch内部自己不处理丢包，仅仅维护可靠性顺序队列，顺序处理而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应每一个Channle来说，都维护一个可靠的接收和发送Bunch队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class ENGINE_API UChannel</t>
+  </si>
+  <si>
+    <t>接收的有序Bunch队列，主要解决的是乱序问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送的有序Bunch队列，主要解决的是丢包问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE底层的Packet机制，主要解决的是Bunch丢包处理，Packet层面的乱序问题（一个TICK内），和消息包合并拆分等优化工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几种情况下FlushNet会发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (SendBuffer.GetNumBits() || HasDirtyAcks || ( Driver-&gt;GetElapsedTime() - LastSendTime &gt; Driver-&gt;KeepAliveTime &amp;&amp; !IsInternalAck() &amp;&amp; State != USOCK_Closed))</t>
+  </si>
+  <si>
+    <t>底层SendBuffer有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasDirtyAcks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常连接距离上次发包超过一定时间（配置的200毫秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下几种情况会发送数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1804,25 +1951,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S84"/>
+  <dimension ref="B1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1830,428 +1977,491 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>443</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="D10" t="s">
+        <v>444</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="D12" t="s">
+        <v>445</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D20" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C11" s="3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D21" t="s">
         <v>265</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C12" s="3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="3">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D22" t="s">
         <v>272</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C13" s="3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C23" s="3">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D23" t="s">
         <v>415</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
+      <c r="J23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D26" t="s">
         <v>414</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M26" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C17" s="3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D27" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C28" s="3">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D28" t="s">
         <v>309</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="S18" s="1" t="s">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="S28" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-      <c r="M19" s="3" t="s">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="M29" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
-      <c r="D21" s="1" t="s">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C31" s="3"/>
+      <c r="D31" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
-      <c r="E22" s="1" t="s">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C32" s="3"/>
+      <c r="E32" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="1" t="s">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" t="s">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="1" t="s">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="G35" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="G26" s="3" t="s">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="G36" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="G27" s="3" t="s">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="G37" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="G28" t="s">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="G38" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="H29" t="s">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="H39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="H30" s="1" t="s">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="H40" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="H31" t="s">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="H41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="H32" s="1" t="s">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="H42" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E33" s="3"/>
-      <c r="H33" t="s">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E43" s="3"/>
+      <c r="H43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E35" s="3" t="s">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E45" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E36" s="3"/>
-      <c r="F36" s="1" t="s">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E46" s="3"/>
+      <c r="F46" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G39" t="s">
+    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G40" t="s">
+    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
         <v>277</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G41" t="s">
+    <row r="51" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
+    <row r="52" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="F44" t="s">
+    <row r="54" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G45" s="1" t="s">
+    <row r="55" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="G55" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="G46" t="s">
+    <row r="56" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="H48" t="s">
+    <row r="58" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H49" t="s">
+    <row r="59" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
         <v>285</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O59" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H50" t="s">
+    <row r="60" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="I51" t="s">
+    <row r="61" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="I61" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="I52" t="s">
+    <row r="62" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="J53" t="s">
+    <row r="63" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="J63" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="J54" t="s">
+    <row r="64" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="I55" t="s">
+    <row r="65" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="I56" t="s">
+    <row r="66" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="I57" t="s">
+    <row r="67" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="J58" t="s">
+    <row r="68" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="J59" t="s">
+    <row r="69" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="60" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="I60" t="s">
+    <row r="70" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H61" t="s">
+    <row r="71" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H63" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="64" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="H64" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H65" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H66" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G67" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H68" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H69" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H71" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H72" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H73" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="7:10" x14ac:dyDescent="0.2">
       <c r="H74" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H78" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H81" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I75" t="s">
+    <row r="85" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I85" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="J76" t="s">
+    <row r="86" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J86" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I78" t="s">
+    <row r="88" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I88" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I79" t="s">
+    <row r="89" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I89" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I80" t="s">
+    <row r="90" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I90" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="I82" t="s">
+    <row r="92" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I92" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H84" t="s">
+    <row r="94" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2263,10 +2473,488 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108741A2-D283-4D33-BB88-6FE63CB1D86F}">
+  <dimension ref="A2:T84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>237</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" t="s">
+        <v>254</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" t="s">
+        <v>242</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" t="s">
+        <v>243</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="D18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>226</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T54" s="4"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>213</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>214</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>255</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>258</v>
+      </c>
+      <c r="N75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+      <c r="O76" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="O77" t="s">
+        <v>8</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>256</v>
+      </c>
+      <c r="O79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>257</v>
+      </c>
+      <c r="O80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>163</v>
+      </c>
+      <c r="O81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P82" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="N84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06212023-4534-4F6E-A103-291E17779071}">
   <dimension ref="B2:S143"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N135" sqref="N135"/>
     </sheetView>
   </sheetViews>
@@ -3028,12 +3716,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1164213A-C906-4062-9726-FC697A38BE85}">
+  <dimension ref="B2:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D183E881-A738-4796-B374-4F91D64144BB}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17F22B7-E8AC-4886-AE53-76BB1DCDD149}">
   <dimension ref="B2:V144"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3636,7 +4427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7264EC8-8C96-4E09-964C-42543955156B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3651,25 +4442,145 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A41948-F5F9-4825-A76C-FDBC31356353}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BC9F48-E608-439E-8BCB-F8A221040F8A}">
-  <dimension ref="B3:P95"/>
+  <dimension ref="B3:P98"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4165,6 +5076,9 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
+      <c r="O92" s="2" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="93" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E93" s="2" t="s">
@@ -4188,41 +5102,186 @@
         <v>194</v>
       </c>
     </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4319B7-1821-4225-A00E-2A2CE74C6E26}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C384F6-73C1-4CC0-978D-6208CC115114}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C384F6-73C1-4CC0-978D-6208CC115114}">
+  <dimension ref="B3:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>435</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>437</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6766D05F-592F-4A2E-9B88-484211E5FAAC}">
   <dimension ref="B6:B23"/>
   <sheetViews>
@@ -4250,482 +5309,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108741A2-D283-4D33-BB88-6FE63CB1D86F}">
-  <dimension ref="A2:T84"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" t="s">
-        <v>235</v>
-      </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" t="s">
-        <v>237</v>
-      </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" t="s">
-        <v>238</v>
-      </c>
-      <c r="H13" t="s">
-        <v>239</v>
-      </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" t="s">
-        <v>240</v>
-      </c>
-      <c r="H14" t="s">
-        <v>254</v>
-      </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" t="s">
-        <v>242</v>
-      </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" t="s">
-        <v>243</v>
-      </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="D18" t="s">
-        <v>244</v>
-      </c>
-      <c r="H18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>246</v>
-      </c>
-      <c r="H19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="1">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>226</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C47" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>212</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="T54" s="4"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>213</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>214</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C66" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C71" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>255</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N74" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D75" t="s">
-        <v>258</v>
-      </c>
-      <c r="N75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>163</v>
-      </c>
-      <c r="O76" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>45</v>
-      </c>
-      <c r="O77" t="s">
-        <v>8</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>67</v>
-      </c>
-      <c r="P78" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
-        <v>256</v>
-      </c>
-      <c r="O79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D80" t="s">
-        <v>257</v>
-      </c>
-      <c r="O80" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>163</v>
-      </c>
-      <c r="O81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="P82" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="N84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/ue_udp.xlsx
+++ b/doc/ue_udp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3920958-F823-4FC6-912A-77A71E12F898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1890EF7-363B-4F5E-B4F0-F92DC04224FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="736" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="ACK机制" sheetId="8" r:id="rId9"/>
     <sheet name="Packet" sheetId="9" r:id="rId10"/>
     <sheet name="Packet-Bunch包格式" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
+    <sheet name="发送时机" sheetId="12" r:id="rId12"/>
+    <sheet name="UDP的断开处理" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="461">
   <si>
     <t>底层同步使用的UDP通讯，分为可靠和非可靠同步，所以，有必要把这两部分分析一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1589,6 +1590,35 @@
   </si>
   <si>
     <t>以下几种情况会发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recvfrom</t>
+  </si>
+  <si>
+    <t>会发现有Connection refused错误返回，错误码是ECONNREFUSED</t>
+  </si>
+  <si>
+    <t>              A remote host refused to allow the network connection (typically because it is not running the requested service).</t>
+  </si>
+  <si>
+    <t>UDP编程，没有连接的概念，虽然UE做了连接握手处理来模拟连接，但是对于断开怎么做了？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECONNREFUSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后就表示连接断开了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖于ICMP，如果客户端关闭了，则sendto就会产生目标不可达，然后再receivefrom时就会报错：ECONNREFUSED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！有目标地址，但是返回是-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1596,7 +1626,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1644,6 +1674,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Microsoft yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1665,12 +1710,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1957,19 +2004,19 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12">
       <c r="B1" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12">
       <c r="B2" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1977,39 +2024,39 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8" s="1" t="s">
         <v>442</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>443</v>
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="B10" s="1"/>
       <c r="D10" t="s">
         <v>444</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
         <v>123</v>
@@ -2022,14 +2069,14 @@
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12">
       <c r="B12" s="1"/>
       <c r="D12" t="s">
         <v>445</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="D13" t="s">
         <v>71</v>
       </c>
@@ -2040,12 +2087,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19">
       <c r="B18" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19">
       <c r="C20" s="1" t="s">
         <v>264</v>
       </c>
@@ -2053,7 +2100,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19">
       <c r="C21" s="3">
         <v>1</v>
       </c>
@@ -2064,7 +2111,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19">
       <c r="C22" s="3">
         <v>2</v>
       </c>
@@ -2078,7 +2125,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19">
       <c r="C23" s="3">
         <v>3</v>
       </c>
@@ -2088,13 +2135,13 @@
       <c r="J23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19">
       <c r="C26" s="3" t="s">
         <v>266</v>
       </c>
@@ -2105,7 +2152,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19">
       <c r="C27" s="3">
         <v>1</v>
       </c>
@@ -2113,7 +2160,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19">
       <c r="C28" s="3">
         <v>2</v>
       </c>
@@ -2130,7 +2177,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19">
       <c r="C29" s="3"/>
       <c r="M29" s="3" t="s">
         <v>311</v>
@@ -2139,20 +2186,20 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19">
       <c r="C30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19">
       <c r="C31" s="3"/>
       <c r="D31" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19">
       <c r="C32" s="3"/>
       <c r="E32" s="1" t="s">
         <v>269</v>
@@ -2161,7 +2208,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:15">
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
@@ -2171,105 +2218,105 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:15">
       <c r="C34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:15">
       <c r="C35" s="3"/>
       <c r="E35" s="3"/>
       <c r="G35" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:15">
       <c r="C36" s="3"/>
       <c r="E36" s="3"/>
       <c r="G36" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:15">
       <c r="C37" s="3"/>
       <c r="E37" s="3"/>
       <c r="G37" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:15">
       <c r="C38" s="3"/>
       <c r="E38" s="3"/>
       <c r="G38" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:15">
       <c r="C39" s="3"/>
       <c r="E39" s="3"/>
       <c r="H39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:15">
       <c r="C40" s="3"/>
       <c r="E40" s="3"/>
       <c r="H40" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:15">
       <c r="C41" s="3"/>
       <c r="E41" s="3"/>
       <c r="H41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:15">
       <c r="C42" s="3"/>
       <c r="E42" s="3"/>
       <c r="H42" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:15">
       <c r="E43" s="3"/>
       <c r="H43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:15">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:15">
       <c r="E45" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:15">
       <c r="E46" s="3"/>
       <c r="F46" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:15">
       <c r="F47" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:15">
       <c r="F48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:15">
       <c r="G49" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="50" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:15">
       <c r="G50" t="s">
         <v>277</v>
       </c>
@@ -2277,37 +2324,37 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:15">
       <c r="G51" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:15">
       <c r="F52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:15">
       <c r="F54" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:15">
       <c r="G55" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:15">
       <c r="G56" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="58" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:15">
       <c r="H58" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:15">
       <c r="H59" t="s">
         <v>285</v>
       </c>
@@ -2315,152 +2362,152 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:15">
       <c r="H60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:15">
       <c r="I61" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:15">
       <c r="I62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:15">
       <c r="J63" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="6:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:15">
       <c r="J64" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:10">
       <c r="I65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:10">
       <c r="I66" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:10">
       <c r="I67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:10">
       <c r="J68" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:10">
       <c r="J69" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:10">
       <c r="I70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:10">
       <c r="H71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:10">
       <c r="H73" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:10">
       <c r="H74" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:10">
       <c r="H75" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:10">
       <c r="H76" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:10">
       <c r="G77" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:10">
       <c r="H78" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:10">
       <c r="H79" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="81" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:10">
       <c r="H81" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="82" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:10">
       <c r="H82" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="83" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:10">
       <c r="H83" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:10">
       <c r="H84" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:10">
       <c r="I85" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:10">
       <c r="J86" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="88" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:10">
       <c r="I88" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="89" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:10">
       <c r="I89" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:10">
       <c r="I90" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="92" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:10">
       <c r="I92" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:10">
       <c r="H94" t="s">
         <v>303</v>
       </c>
@@ -2480,17 +2527,17 @@
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15">
       <c r="B2" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>229</v>
@@ -2499,47 +2546,47 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>262</v>
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>261</v>
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15">
       <c r="B9" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C9" s="1"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15">
       <c r="B10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>248</v>
@@ -2549,7 +2596,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" t="s">
@@ -2560,7 +2607,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" t="s">
@@ -2571,7 +2618,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" t="s">
@@ -2582,7 +2629,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" t="s">
@@ -2593,12 +2640,12 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
@@ -2606,7 +2653,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="B18" s="2"/>
       <c r="D18" t="s">
         <v>244</v>
@@ -2615,7 +2662,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="D19" t="s">
         <v>246</v>
       </c>
@@ -2623,27 +2670,27 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="B23" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="B24" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="B25" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="B27" s="1">
         <v>1</v>
       </c>
@@ -2651,47 +2698,47 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="C28" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="C29" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="C30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="D31" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="D32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10">
       <c r="D33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10">
       <c r="D35" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10">
       <c r="C36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10">
       <c r="B38" s="1">
         <v>2</v>
       </c>
@@ -2699,12 +2746,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10">
       <c r="D39" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10">
       <c r="B41" s="1">
         <v>3</v>
       </c>
@@ -2713,7 +2760,7 @@
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10">
       <c r="D42" t="s">
         <v>226</v>
       </c>
@@ -2721,47 +2768,47 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10">
       <c r="B45" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10">
       <c r="B46" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10">
       <c r="C47" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10">
       <c r="C48" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20">
       <c r="C49" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20">
       <c r="B51" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20">
       <c r="B52" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20">
       <c r="C53" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20">
       <c r="C54" t="s">
         <v>212</v>
       </c>
@@ -2779,7 +2826,7 @@
       </c>
       <c r="T54" s="4"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20">
       <c r="C55" t="s">
         <v>213</v>
       </c>
@@ -2787,7 +2834,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20">
       <c r="C56" t="s">
         <v>214</v>
       </c>
@@ -2795,62 +2842,62 @@
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20">
       <c r="C57" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20">
       <c r="C58" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20">
       <c r="C59" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20">
       <c r="A63" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20">
       <c r="B64" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:16">
       <c r="C66" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:16">
       <c r="C67" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:16">
       <c r="C68" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:16">
       <c r="C69" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:16">
       <c r="C71" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:16">
       <c r="C72" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:16">
       <c r="C73" t="s">
         <v>255</v>
       </c>
@@ -2858,7 +2905,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:16">
       <c r="C74" t="s">
         <v>67</v>
       </c>
@@ -2869,7 +2916,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:16">
       <c r="D75" t="s">
         <v>258</v>
       </c>
@@ -2877,7 +2924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:16">
       <c r="C76" t="s">
         <v>163</v>
       </c>
@@ -2885,7 +2932,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:16">
       <c r="C77" t="s">
         <v>45</v>
       </c>
@@ -2896,7 +2943,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:16">
       <c r="C78" t="s">
         <v>67</v>
       </c>
@@ -2904,7 +2951,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:16">
       <c r="D79" t="s">
         <v>256</v>
       </c>
@@ -2912,7 +2959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:16">
       <c r="D80" t="s">
         <v>257</v>
       </c>
@@ -2920,7 +2967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16">
       <c r="C81" t="s">
         <v>163</v>
       </c>
@@ -2928,17 +2975,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16">
       <c r="P82" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:16">
       <c r="O83" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16">
       <c r="N84" t="s">
         <v>10</v>
       </c>
@@ -2958,17 +3005,17 @@
       <selection activeCell="N135" sqref="N135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18">
       <c r="B2" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18">
       <c r="C3">
         <v>1</v>
       </c>
@@ -2976,7 +3023,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18">
       <c r="C4">
         <v>2</v>
       </c>
@@ -2984,7 +3031,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18">
       <c r="C5">
         <v>3</v>
       </c>
@@ -2992,17 +3039,17 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18">
       <c r="B10" s="2" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18">
       <c r="B11" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -3013,7 +3060,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18">
       <c r="C16" t="s">
         <v>169</v>
       </c>
@@ -3021,7 +3068,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:19">
       <c r="C17" t="s">
         <v>170</v>
       </c>
@@ -3029,7 +3076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19">
       <c r="C18" t="s">
         <v>171</v>
       </c>
@@ -3037,7 +3084,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19">
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -3045,7 +3092,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:19">
       <c r="D20" t="s">
         <v>326</v>
       </c>
@@ -3053,7 +3100,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19">
       <c r="D21" t="s">
         <v>183</v>
       </c>
@@ -3061,7 +3108,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19">
       <c r="C22" t="s">
         <v>10</v>
       </c>
@@ -3069,22 +3116,22 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19">
       <c r="E24" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19">
       <c r="E25" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:19">
       <c r="E26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19">
       <c r="E27" s="1">
         <v>1</v>
       </c>
@@ -3093,22 +3140,22 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19">
       <c r="F28" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:19">
       <c r="F29" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19">
       <c r="F30" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:19">
       <c r="E32" s="1">
         <v>2</v>
       </c>
@@ -3117,27 +3164,27 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14">
       <c r="F33" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14">
       <c r="F34" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14">
       <c r="F35" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14">
       <c r="F36" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14">
       <c r="E38" s="1">
         <v>3</v>
       </c>
@@ -3146,12 +3193,12 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14">
       <c r="F39" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14">
       <c r="F40" t="s">
         <v>342</v>
       </c>
@@ -3159,22 +3206,22 @@
         <v>349</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14">
       <c r="F42" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14">
       <c r="F44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14">
       <c r="E45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14">
       <c r="B47" s="2">
         <v>2</v>
       </c>
@@ -3193,7 +3240,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14">
       <c r="C48" s="3" t="s">
         <v>351</v>
       </c>
@@ -3211,7 +3258,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3225,7 +3272,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:17">
       <c r="B53" s="2">
         <v>3</v>
       </c>
@@ -3233,27 +3280,27 @@
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17">
       <c r="C54" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:17">
       <c r="D58" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:17">
       <c r="E59" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:17">
       <c r="E60" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:17">
       <c r="E61" t="s">
         <v>361</v>
       </c>
@@ -3261,7 +3308,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:17">
       <c r="E62" t="s">
         <v>363</v>
       </c>
@@ -3269,7 +3316,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:17">
       <c r="E63" t="s">
         <v>365</v>
       </c>
@@ -3284,7 +3331,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:17">
       <c r="E64" t="s">
         <v>367</v>
       </c>
@@ -3299,7 +3346,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:17">
       <c r="E65" t="s">
         <v>369</v>
       </c>
@@ -3314,64 +3361,64 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:17">
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:17">
       <c r="E67" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:17">
       <c r="E68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:17">
       <c r="F69" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:17">
       <c r="F70" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:17">
       <c r="E71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:17">
       <c r="E72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:17">
       <c r="E73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:17">
       <c r="F74" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:17">
       <c r="E75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:17">
       <c r="E77" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:17">
       <c r="E78" t="s">
         <v>375</v>
       </c>
@@ -3382,22 +3429,22 @@
         <v>388</v>
       </c>
     </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:17">
       <c r="E80" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:19">
       <c r="E81" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:19">
       <c r="F82" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:19">
       <c r="F83" t="s">
         <v>378</v>
       </c>
@@ -3410,7 +3457,7 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:19">
       <c r="E84" t="s">
         <v>10</v>
       </c>
@@ -3421,7 +3468,7 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:19">
       <c r="E85" t="s">
         <v>27</v>
       </c>
@@ -3432,7 +3479,7 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:19">
       <c r="E86" t="s">
         <v>8</v>
       </c>
@@ -3443,7 +3490,7 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:19">
       <c r="F87" t="s">
         <v>379</v>
       </c>
@@ -3454,7 +3501,7 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:19">
       <c r="F88" t="s">
         <v>380</v>
       </c>
@@ -3467,7 +3514,7 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:19">
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -3475,7 +3522,7 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:19">
       <c r="F90" t="s">
         <v>381</v>
       </c>
@@ -3486,37 +3533,37 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:19">
       <c r="F91" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:19">
       <c r="G92" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:19">
       <c r="G93" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:19">
       <c r="F94" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:19">
       <c r="F96" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:14">
       <c r="E97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:14">
       <c r="E100" t="s">
         <v>389</v>
       </c>
@@ -3524,7 +3571,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:14">
       <c r="E101" t="s">
         <v>390</v>
       </c>
@@ -3532,7 +3579,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="102" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:14">
       <c r="E102" t="s">
         <v>391</v>
       </c>
@@ -3540,7 +3587,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="105" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:14">
       <c r="E105" s="2" t="s">
         <v>402</v>
       </c>
@@ -3548,87 +3595,87 @@
         <v>403</v>
       </c>
     </row>
-    <row r="106" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:14">
       <c r="E106" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="107" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:14">
       <c r="E107" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:14">
       <c r="F108" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="109" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:14">
       <c r="F109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:14">
       <c r="G110" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="111" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:14">
       <c r="G111" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:14">
       <c r="F112" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:15">
       <c r="F113" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:15">
       <c r="F114" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:15">
       <c r="G115" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="116" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:15">
       <c r="G116" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="117" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:15">
       <c r="F117" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:15">
       <c r="E118" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="119" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:15">
       <c r="E119" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="120" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:15">
       <c r="E120" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:15">
       <c r="F121" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="122" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:15">
       <c r="F122" t="s">
         <v>400</v>
       </c>
@@ -3636,76 +3683,76 @@
         <v>405</v>
       </c>
     </row>
-    <row r="123" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:15">
       <c r="E123" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:15">
       <c r="E124" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:15">
       <c r="E125" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:15">
       <c r="F126" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="127" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:15">
       <c r="E127" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:7">
       <c r="E130" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:7">
       <c r="E131" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="134" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="5:7">
       <c r="E134" s="1" t="s">
         <v>408</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:7">
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="5:7">
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="5:7">
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:7">
       <c r="E138" s="3" t="s">
         <v>409</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="142" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="5:7">
       <c r="E142" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="143" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="5:7">
       <c r="E143" t="s">
         <v>410</v>
       </c>
@@ -3720,23 +3767,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1164213A-C906-4062-9726-FC697A38BE85}">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9">
       <c r="C9" s="1" t="s">
         <v>452</v>
       </c>
@@ -3747,7 +3794,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9">
       <c r="C10" s="1">
         <v>1</v>
       </c>
@@ -3760,7 +3807,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9">
       <c r="C11" s="1">
         <v>2</v>
       </c>
@@ -3773,7 +3820,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9">
       <c r="C12" s="1">
         <v>3</v>
       </c>
@@ -3786,9 +3833,72 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9">
       <c r="C14" t="s">
         <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA55E8C2-5DAA-4DDE-BB86-EADFAE334F5A}">
+  <dimension ref="B4:P22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="4" spans="2:16">
+      <c r="B4" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="C6" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="P6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="C7" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="18" spans="5:10" ht="16.5">
+      <c r="E18" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="21" spans="5:10" ht="15">
+      <c r="E21" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" ht="15">
+      <c r="E22" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3806,9 +3916,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>446</v>
       </c>
@@ -3827,109 +3937,109 @@
       <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4">
       <c r="C4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="D7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4">
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4">
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4">
       <c r="D12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4">
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4">
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4">
       <c r="D16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:13">
       <c r="D17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:13">
       <c r="E18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:13">
       <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:13">
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:13">
       <c r="D22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:13">
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:13">
       <c r="D25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:13">
       <c r="D26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:13">
       <c r="D27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:13">
       <c r="D28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:13">
       <c r="D30" s="1" t="s">
         <v>21</v>
       </c>
@@ -3937,12 +4047,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:13">
       <c r="D31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:13">
       <c r="D34" s="1" t="s">
         <v>23</v>
       </c>
@@ -3950,52 +4060,52 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:13">
       <c r="D35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:13">
       <c r="E36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:13">
       <c r="D37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:13">
       <c r="E38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:13">
       <c r="C41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:13">
       <c r="C42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:13">
       <c r="D44" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:13">
       <c r="D45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:13">
       <c r="D46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:13">
       <c r="D48" s="1" t="s">
         <v>34</v>
       </c>
@@ -4003,12 +4113,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:13">
       <c r="D50" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:13">
       <c r="D51" t="s">
         <v>37</v>
       </c>
@@ -4016,32 +4126,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:13">
       <c r="E52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:13">
       <c r="E53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:13">
       <c r="F54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:13">
       <c r="F55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:13">
       <c r="F56" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:13">
       <c r="F57" t="s">
         <v>44</v>
       </c>
@@ -4049,12 +4159,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:13">
       <c r="D58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:13">
       <c r="E59" t="s">
         <v>46</v>
       </c>
@@ -4062,107 +4172,107 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:13">
       <c r="D61" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:13">
       <c r="D62" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:13">
       <c r="D63" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:13">
       <c r="E64" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:6">
       <c r="E65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:6">
       <c r="E66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:6">
       <c r="E67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:6">
       <c r="E68" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:6">
       <c r="E69" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:6">
       <c r="E70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:6">
       <c r="E71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:6">
       <c r="E73" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:6">
       <c r="E74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:6">
       <c r="F75" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:6">
       <c r="E76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:6">
       <c r="E78" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:6">
       <c r="E79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:6">
       <c r="F80" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:22">
       <c r="F81" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:22">
       <c r="F82" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:22">
       <c r="F83" t="s">
         <v>64</v>
       </c>
@@ -4170,17 +4280,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:22">
       <c r="F84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:22">
       <c r="E85" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:22">
       <c r="E87" s="1" t="s">
         <v>70</v>
       </c>
@@ -4190,7 +4300,7 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:22">
       <c r="E88" t="s">
         <v>69</v>
       </c>
@@ -4205,7 +4315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:22">
       <c r="E89" t="s">
         <v>68</v>
       </c>
@@ -4218,22 +4328,22 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:22">
       <c r="G91" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:22">
       <c r="G92" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:22">
       <c r="G93" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:22">
       <c r="G95" t="s">
         <v>75</v>
       </c>
@@ -4241,7 +4351,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:22">
       <c r="G96" t="s">
         <v>76</v>
       </c>
@@ -4252,7 +4362,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:21">
       <c r="G97" t="s">
         <v>77</v>
       </c>
@@ -4260,163 +4370,163 @@
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:21">
       <c r="G98" t="s">
         <v>8</v>
       </c>
       <c r="U98" s="2"/>
     </row>
-    <row r="99" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:21">
       <c r="H99" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:21">
       <c r="G100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:21">
       <c r="G101" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:21">
       <c r="E103" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:21">
       <c r="E104" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:21">
       <c r="F106" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="107" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:21">
       <c r="F107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:21">
       <c r="G108" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:21">
       <c r="G109" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:21">
       <c r="G110" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:21">
       <c r="F112" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="7:8">
       <c r="G114" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="7:8">
       <c r="G115" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:8">
       <c r="G116" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:8">
       <c r="H118" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:8">
       <c r="H119" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:8">
       <c r="H120" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:8">
       <c r="H121" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:8">
       <c r="G124" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:8">
       <c r="G125" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:8">
       <c r="G126" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:8">
       <c r="G127" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7">
       <c r="G130" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7">
       <c r="G131" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7">
       <c r="G132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7">
       <c r="B138" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7">
       <c r="C139" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7">
       <c r="D141" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7">
       <c r="D142" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7">
       <c r="D143" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:7">
       <c r="D144" t="s">
         <v>108</v>
       </c>
@@ -4435,7 +4545,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4450,121 +4560,121 @@
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>417</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4">
       <c r="B4" s="3" t="s">
         <v>418</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4">
       <c r="C9" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4">
       <c r="C10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4">
       <c r="C11" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4">
       <c r="D12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4">
       <c r="D14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4">
       <c r="D15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4">
       <c r="D16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="D17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="D18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4">
       <c r="D19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="D20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4">
       <c r="D22" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4">
       <c r="D23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4">
       <c r="C24" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="C28" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4">
       <c r="C29" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4">
       <c r="B32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3">
       <c r="C33" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3">
       <c r="C34" s="1" t="s">
         <v>425</v>
       </c>
@@ -4583,29 +4693,29 @@
       <selection activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16">
       <c r="B3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16">
       <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16">
       <c r="B6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16">
       <c r="B7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16">
       <c r="C9" t="s">
         <v>118</v>
       </c>
@@ -4616,7 +4726,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16">
       <c r="C10" t="s">
         <v>118</v>
       </c>
@@ -4627,7 +4737,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16">
       <c r="C11" t="s">
         <v>123</v>
       </c>
@@ -4638,7 +4748,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16">
       <c r="C12" s="2" t="s">
         <v>71</v>
       </c>
@@ -4659,7 +4769,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16">
       <c r="C13" t="s">
         <v>123</v>
       </c>
@@ -4670,27 +4780,27 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16">
       <c r="B16" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="2" t="s">
         <v>133</v>
       </c>
@@ -4698,43 +4808,43 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="2"/>
       <c r="C21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="2"/>
       <c r="D24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="2"/>
       <c r="E25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="2"/>
       <c r="E26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="2"/>
       <c r="F27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="2"/>
       <c r="F28" t="s">
         <v>141</v>
@@ -4743,248 +4853,248 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="2"/>
       <c r="F29" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="F30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="G31" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="E32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="F33" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="F34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="G35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="G36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="G37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="G38" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="G39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="G40" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="B43" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="C44" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="D45" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="D46" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="D47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="E48" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:5">
       <c r="E49" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:5">
       <c r="E50" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:5">
       <c r="E51" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:5">
       <c r="E52" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:5">
       <c r="E53" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:5">
       <c r="E55" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:5">
       <c r="D56" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:5">
       <c r="C58" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:5">
       <c r="D59" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:5">
       <c r="C61" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:5">
       <c r="D62" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:5">
       <c r="C63" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:5">
       <c r="D65" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:5">
       <c r="D66" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:5">
       <c r="D67" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:5">
       <c r="D68" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:5">
       <c r="D70" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:5">
       <c r="D71" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:5">
       <c r="D72" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:5">
       <c r="D73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:5">
       <c r="E74" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:5">
       <c r="E75" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:5">
       <c r="E76" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:5">
       <c r="E77" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:5">
       <c r="E79" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:5">
       <c r="E80" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:15">
       <c r="E81" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:15">
       <c r="F82" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:15">
       <c r="F83" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:15">
       <c r="E84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:15">
       <c r="E86" s="2" t="s">
         <v>184</v>
       </c>
@@ -4996,7 +5106,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:15">
       <c r="E87" s="2" t="s">
         <v>8</v>
       </c>
@@ -5008,7 +5118,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:15">
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
         <v>185</v>
@@ -5023,7 +5133,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:15">
       <c r="E89" s="2" t="s">
         <v>10</v>
       </c>
@@ -5038,7 +5148,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:15">
       <c r="E90" s="2" t="s">
         <v>27</v>
       </c>
@@ -5053,7 +5163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:15">
       <c r="E91" s="2" t="s">
         <v>8</v>
       </c>
@@ -5065,7 +5175,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:15">
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
         <v>186</v>
@@ -5080,7 +5190,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="93" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:15">
       <c r="E93" s="2" t="s">
         <v>187</v>
       </c>
@@ -5092,17 +5202,17 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:15">
       <c r="D94" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:15">
       <c r="D95" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4">
       <c r="D98" s="1" t="s">
         <v>356</v>
       </c>
@@ -5121,23 +5231,23 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>426</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>427</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -5146,12 +5256,12 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5">
       <c r="C7" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5">
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -5161,7 +5271,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5">
       <c r="C10" t="s">
         <v>431</v>
       </c>
@@ -5180,9 +5290,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="B3" s="2" t="s">
         <v>433</v>
       </c>
@@ -5195,7 +5305,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20">
       <c r="B4" s="2" t="s">
         <v>432</v>
       </c>
@@ -5208,7 +5318,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5219,7 +5329,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -5227,7 +5337,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="C8" t="s">
         <v>435</v>
       </c>
@@ -5241,12 +5351,12 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20">
       <c r="C9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20">
       <c r="C10" t="s">
         <v>437</v>
       </c>
@@ -5257,7 +5367,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -5265,12 +5375,12 @@
         <v>430</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20">
       <c r="C16" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>441</v>
       </c>
@@ -5289,17 +5399,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
         <v>193</v>
       </c>

--- a/doc/ue_udp.xlsx
+++ b/doc/ue_udp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1890EF7-363B-4F5E-B4F0-F92DC04224FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F06363-1E0F-4B33-A3FB-FF7689CD734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="463">
   <si>
     <t>底层同步使用的UDP通讯，分为可靠和非可靠同步，所以，有必要把这两部分分析一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1620,6 +1620,13 @@
   <si>
     <t>！！！有目标地址，但是返回是-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICMP与DOS攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://info.support.huawei.com/info-finder/encyclopedia/zh/ICMP.html</t>
   </si>
 </sst>
 </file>
@@ -1733,6 +1740,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="ICMP泛洪攻击">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F0057F-9D18-52E7-5460-5F0D6D274B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2143125" y="1800225"/>
+          <a:ext cx="3638550" cy="2733675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3847,10 +3920,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA55E8C2-5DAA-4DDE-BB86-EADFAE334F5A}">
-  <dimension ref="B4:P22"/>
+  <dimension ref="B4:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3879,25 +3952,35 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="18" spans="5:10" ht="16.5">
-      <c r="E18" s="5" t="s">
+    <row r="11" spans="2:16">
+      <c r="B11" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="O16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="16.5">
+      <c r="B27" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="5" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="21" spans="5:10" ht="15">
-      <c r="E21" s="6" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="30" spans="2:7" ht="15">
+      <c r="B30" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="5:10" ht="15">
-      <c r="E22" s="6" t="s">
+    <row r="31" spans="2:7" ht="15">
+      <c r="B31" s="6" t="s">
         <v>455</v>
       </c>
     </row>
@@ -3905,6 +3988,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
